--- a/资料库/武器库.xlsx
+++ b/资料库/武器库.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9765"/>
+    <workbookView windowWidth="19935" windowHeight="7785" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="武器V3" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="170">
   <si>
     <t>编号</t>
   </si>
@@ -562,16 +562,33 @@
   <si>
     <t>这个武器可以单手持握，但不能在这个时候攻击</t>
   </si>
+  <si>
+    <t>发动3次命中分别计算的近战攻击，消耗45体力</t>
+  </si>
+  <si>
+    <t>每日失去1的精神力
+-勇气愿望：武器造成撕裂伤害，造成流血时为使用者生成力场护盾I。愿望为勇气时生效
+-欲望愿望：武器造成贯穿伤害，造成穿甲效果时为使用者恢复等同于伤害的生命力。愿望为欲望时生效
+-慈爱愿望：武器造成钝击伤害，可以以全额伤害进行手下留情攻击。愿望为慈爱时生效
+-荣誉愿望：武器造成魔力伤害，可以作为魔导具。愿望为荣誉时生效</t>
+  </si>
+  <si>
+    <t>生命力在一半以下时，自然恢复力变为0
+-苦劳之血：生命力在一半以下时，武器造成麻痹毒素I；在濒死时，武器造成麻痹毒素II。最高象限为坚韧时生效
+-痴念之血：生命力在一半以下时，武器造成火焰伤害I；在濒死时，武器造成火焰伤害II。最高象限为主动时生效
+-高傲之血：生命力在一半以下时，获得I的灵能护盾；在濒死时，获得II的灵能护盾。最高象限为心防时生效
+-自绝之血：生命力在一半以下时，将承受的魔法伤害返还攻击者；在濒死时，将承受的魔法伤害和物理伤害返还攻击者。最高象限为共情时生效</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -582,85 +599,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -680,9 +623,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -697,6 +639,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -705,22 +676,68 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -747,7 +764,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -759,19 +854,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -783,55 +878,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -843,49 +926,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -897,37 +938,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -941,16 +958,40 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -971,17 +1012,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -995,25 +1030,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1029,162 +1055,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1525,7 +1542,7 @@
   <sheetPr/>
   <dimension ref="A1:AL21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="V23" sqref="V23"/>
     </sheetView>
   </sheetViews>
@@ -2771,8 +2788,8 @@
   <sheetPr/>
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -3231,39 +3248,75 @@
         <v>166</v>
       </c>
     </row>
-    <row r="27" spans="2:2">
+    <row r="27" spans="2:6">
       <c r="B27" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2">
+        <v>122</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="28" ht="124" customHeight="1" spans="2:6">
       <c r="B28" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2">
+        <v>122</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="29" ht="135" spans="2:6">
       <c r="B29" s="1" t="s">
-        <v>22</v>
+        <v>122</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" s="1" t="s">
-        <v>22</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="1" t="s">
-        <v>22</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="1" t="s">
-        <v>22</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D11 D12:D20 D21:D22 D23:D26">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D26 D27 D2:D11 D12:D20 D21:D22 D23:D25 D28:D29">
       <formula1>"特殊攻击,攻击特性,防御特性,通用特性"</formula1>
     </dataValidation>
   </dataValidations>

--- a/资料库/武器库.xlsx
+++ b/资料库/武器库.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19935" windowHeight="7785" activeTab="1"/>
+    <workbookView windowWidth="21600" windowHeight="9765"/>
   </bookViews>
   <sheets>
     <sheet name="武器V3" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="184">
   <si>
     <t>编号</t>
   </si>
@@ -405,6 +405,48 @@
   </si>
   <si>
     <t>有着仿佛经过烈火烧灼般接近融毁的剑刃，手柄红色的线绳上挂着一个吊坠。“龙啊，如果不能给予我你的爱，那么请刺穿我的心”</t>
+  </si>
+  <si>
+    <t>宽刃重剑</t>
+  </si>
+  <si>
+    <t>1D100+30</t>
+  </si>
+  <si>
+    <t>借势攻击</t>
+  </si>
+  <si>
+    <t>巨刃格挡</t>
+  </si>
+  <si>
+    <t>力量5</t>
+  </si>
+  <si>
+    <t>近战5</t>
+  </si>
+  <si>
+    <t>使用的时候不小心可以把自己甩出去的重剑。不能按照原本的开发用途来切菜，但是可以拿巨大的刃来挡溅起的油</t>
+  </si>
+  <si>
+    <t>大和长弓</t>
+  </si>
+  <si>
+    <t>穿甲射击</t>
+  </si>
+  <si>
+    <t>曲射I</t>
+  </si>
+  <si>
+    <t>靶向射击</t>
+  </si>
+  <si>
+    <t>力量5敏捷3</t>
+  </si>
+  <si>
+    <t>弓弩5</t>
+  </si>
+  <si>
+    <t>超过1米的巨大长弓，可以射出沉重的箭头。抛射可以打击掩体后面的敌人，但是不适合巨乳的人使用</t>
   </si>
   <si>
     <t>梯阶</t>
@@ -585,10 +627,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -599,16 +641,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -624,7 +665,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -632,9 +681,32 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -646,14 +718,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -668,17 +740,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -690,8 +754,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -699,45 +780,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -764,7 +806,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -776,13 +908,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -794,67 +950,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -866,85 +986,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -955,6 +997,36 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -982,6 +1054,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -997,17 +1078,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1020,71 +1097,36 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1093,115 +1135,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1540,10 +1582,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AL21"/>
+  <dimension ref="A1:AL25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V23" sqref="V23"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="V30" sqref="V29:V30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1558,12 +1600,12 @@
     <col min="10" max="10" width="4.375" style="1" customWidth="1"/>
     <col min="11" max="11" width="4.25" style="1" customWidth="1"/>
     <col min="12" max="13" width="9" style="1"/>
-    <col min="14" max="14" width="7" style="1" customWidth="1"/>
-    <col min="15" max="15" width="5.375" style="1" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="6.25" style="1" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="9.625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="5.625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="6.625" style="1" customWidth="1"/>
     <col min="17" max="17" width="1" style="1" customWidth="1"/>
-    <col min="18" max="18" width="7.875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="4.125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="10" style="1" customWidth="1"/>
+    <col min="19" max="19" width="5.375" style="1" customWidth="1"/>
     <col min="20" max="20" width="1.75" style="1" customWidth="1"/>
     <col min="21" max="21" width="9" style="1"/>
     <col min="22" max="22" width="65.5" style="2" customWidth="1"/>
@@ -2777,6 +2819,140 @@
         <v>129</v>
       </c>
     </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="24" ht="27" spans="1:22">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D24" s="1">
+        <v>3</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H24" s="1">
+        <v>1</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K24" s="1">
+        <v>2</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="T24" s="1">
+        <v>8</v>
+      </c>
+      <c r="U24" s="1">
+        <v>4500</v>
+      </c>
+      <c r="V24" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="25" ht="27" spans="1:22">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D25" s="1">
+        <v>2</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H25" s="1">
+        <v>8</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K25" s="1">
+        <v>2</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="T25" s="1">
+        <v>8</v>
+      </c>
+      <c r="U25" s="1">
+        <v>3500</v>
+      </c>
+      <c r="V25" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2788,7 +2964,7 @@
   <sheetPr/>
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
@@ -2805,22 +2981,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="2:6">
@@ -2837,7 +3013,7 @@
         <v>26</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="2:6">
@@ -2848,13 +3024,13 @@
         <v>31</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="2:6">
@@ -2871,7 +3047,7 @@
         <v>37</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="2:6">
@@ -2882,13 +3058,13 @@
         <v>39</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="2:6">
@@ -2905,7 +3081,7 @@
         <v>29</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="2:6">
@@ -2916,13 +3092,13 @@
         <v>46</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="2:6">
@@ -2933,13 +3109,13 @@
         <v>51</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="2:6">
@@ -2947,16 +3123,16 @@
         <v>22</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>44</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="2:6">
@@ -2964,16 +3140,16 @@
         <v>22</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="2:6">
@@ -2990,7 +3166,7 @@
         <v>37</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="2:6">
@@ -3007,7 +3183,7 @@
         <v>44</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" spans="2:6">
@@ -3024,7 +3200,7 @@
         <v>26</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="2:6">
@@ -3035,13 +3211,13 @@
         <v>71</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="2:6">
@@ -3058,7 +3234,7 @@
         <v>44</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="2:6">
@@ -3072,10 +3248,10 @@
         <v>11</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="2:6">
@@ -3086,13 +3262,13 @@
         <v>81</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18" spans="2:6">
@@ -3106,10 +3282,10 @@
         <v>11</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" ht="27" spans="2:6">
@@ -3120,13 +3296,13 @@
         <v>86</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20" ht="27" spans="2:6">
@@ -3137,13 +3313,13 @@
         <v>91</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21" ht="27" spans="2:6">
@@ -3151,16 +3327,16 @@
         <v>22</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
     </row>
     <row r="22" spans="2:6">
@@ -3177,7 +3353,7 @@
         <v>29</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23" spans="2:6">
@@ -3188,13 +3364,13 @@
         <v>113</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24" spans="2:6">
@@ -3205,13 +3381,13 @@
         <v>116</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="2:6">
@@ -3228,7 +3404,7 @@
         <v>29</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="2:6">
@@ -3239,13 +3415,13 @@
         <v>120</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="2:6">
@@ -3262,7 +3438,7 @@
         <v>35</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
     </row>
     <row r="28" ht="124" customHeight="1" spans="2:6">
@@ -3273,13 +3449,13 @@
         <v>126</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
     </row>
     <row r="29" ht="135" spans="2:6">
@@ -3290,13 +3466,13 @@
         <v>127</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
     </row>
     <row r="30" spans="2:2">

--- a/资料库/武器库.xlsx
+++ b/资料库/武器库.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9765"/>
+    <workbookView windowWidth="21600" windowHeight="9765" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="武器V3" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="189">
   <si>
     <t>编号</t>
   </si>
@@ -621,16 +621,31 @@
 -高傲之血：生命力在一半以下时，获得I的灵能护盾；在濒死时，获得II的灵能护盾。最高象限为心防时生效
 -自绝之血：生命力在一半以下时，将承受的魔法伤害返还攻击者；在濒死时，将承受的魔法伤害和物理伤害返还攻击者。最高象限为共情时生效</t>
   </si>
+  <si>
+    <t>命中率-I；Instakill或overkill时，将多余的伤害转移给站位内的随机1个目标（敌我不分）；每次攻击只能触发1次</t>
+  </si>
+  <si>
+    <t>如果没有进行攻击，则本回合内被动格挡得到增益，如同佩戴了盾牌一般</t>
+  </si>
+  <si>
+    <t>蓄力1；穿甲+2</t>
+  </si>
+  <si>
+    <t>针对躲在掩体后面的敌人，掩体效果-I</t>
+  </si>
+  <si>
+    <t>如果敌人连续2回合没有进行位移，则命中率+I</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -638,59 +653,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -711,44 +673,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -773,6 +698,96 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -806,7 +821,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -848,13 +881,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -884,67 +947,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -968,25 +983,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -997,21 +1012,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1040,30 +1040,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1074,6 +1050,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1097,6 +1088,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1105,10 +1120,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1117,133 +1132,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1584,8 +1599,8 @@
   <sheetPr/>
   <dimension ref="A1:AL25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="V30" sqref="V29:V30"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2962,10 +2977,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -3475,24 +3490,94 @@
         <v>183</v>
       </c>
     </row>
-    <row r="30" spans="2:2">
+    <row r="30" ht="27" spans="2:6">
       <c r="B30" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="31" spans="2:2">
+      <c r="C30" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="31" ht="27" spans="2:6">
       <c r="B31" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="32" spans="2:2">
+      <c r="C31" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6">
       <c r="B32" s="1" t="s">
         <v>122</v>
       </c>
+      <c r="C32" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>188</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D26 D27 D2:D11 D12:D20 D21:D22 D23:D25 D28:D29">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D26 D27 D28 D34 D2:D11 D12:D20 D21:D22 D23:D25 D29:D31 D32:D33">
       <formula1>"特殊攻击,攻击特性,防御特性,通用特性"</formula1>
     </dataValidation>
   </dataValidations>

--- a/资料库/武器库.xlsx
+++ b/资料库/武器库.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9765" activeTab="1"/>
+    <workbookView windowWidth="21600" windowHeight="9765"/>
   </bookViews>
   <sheets>
     <sheet name="武器V3" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="207">
   <si>
     <t>编号</t>
   </si>
@@ -407,6 +407,42 @@
     <t>有着仿佛经过烈火烧灼般接近融毁的剑刃，手柄红色的线绳上挂着一个吊坠。“龙啊，如果不能给予我你的爱，那么请刺穿我的心”</t>
   </si>
   <si>
+    <t>精制短锤</t>
+  </si>
+  <si>
+    <t>1D6+10</t>
+  </si>
+  <si>
+    <t>投掷I</t>
+  </si>
+  <si>
+    <t>耐久I</t>
+  </si>
+  <si>
+    <t>精心打造的短锤，品质良好不容易坏。超过50%的损失原因都是因为拿来当武器或者掉到拿不到的地方这一点没有人注意到</t>
+  </si>
+  <si>
+    <t>平衡短剑</t>
+  </si>
+  <si>
+    <t>1D6+15</t>
+  </si>
+  <si>
+    <t>退魔匕首</t>
+  </si>
+  <si>
+    <t>暗夜单手锤</t>
+  </si>
+  <si>
+    <t>血肉直剑</t>
+  </si>
+  <si>
+    <t>光之刺剑</t>
+  </si>
+  <si>
+    <t>火焰战锤</t>
+  </si>
+  <si>
     <t>宽刃重剑</t>
   </si>
   <si>
@@ -428,6 +464,24 @@
     <t>使用的时候不小心可以把自己甩出去的重剑。不能按照原本的开发用途来切菜，但是可以拿巨大的刃来挡溅起的油</t>
   </si>
   <si>
+    <t>闪电破甲剑</t>
+  </si>
+  <si>
+    <t>蓄能拳套</t>
+  </si>
+  <si>
+    <t>复合短弩</t>
+  </si>
+  <si>
+    <t>散射短弓</t>
+  </si>
+  <si>
+    <t>左轮手枪</t>
+  </si>
+  <si>
+    <t>重击十字弩</t>
+  </si>
+  <si>
     <t>大和长弓</t>
   </si>
   <si>
@@ -446,7 +500,7 @@
     <t>弓弩5</t>
   </si>
   <si>
-    <t>超过1米的巨大长弓，可以射出沉重的箭头。抛射可以打击掩体后面的敌人，但是不适合巨乳的人使用</t>
+    <t>超过1米的巨大长弓，可以射出沉重的箭头，为什么叫这个名字还无人得知。抛射可以打击掩体后面的敌人，但是不适合巨乳的人使用</t>
   </si>
   <si>
     <t>梯阶</t>
@@ -656,6 +710,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -674,6 +742,37 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -704,14 +803,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -728,51 +819,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -787,14 +841,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -821,7 +875,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -839,13 +947,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -863,25 +971,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -893,19 +1007,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -923,19 +1025,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -959,49 +1055,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1120,10 +1174,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1132,133 +1186,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1597,10 +1651,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AL25"/>
+  <dimension ref="A1:AL36"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2834,23 +2888,125 @@
         <v>129</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" ht="27" spans="1:22">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="C22" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T22" s="1">
+        <v>2</v>
+      </c>
+      <c r="U22" s="1">
+        <v>550</v>
+      </c>
+      <c r="V22" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="24" ht="27" spans="1:22">
+      <c r="C23" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T23" s="1">
+        <v>2</v>
+      </c>
+      <c r="U23" s="1">
+        <v>700</v>
+      </c>
+      <c r="V23" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2858,58 +3014,13 @@
         <v>122</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D24" s="1">
-        <v>3</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H24" s="1">
         <v>1</v>
       </c>
-      <c r="I24" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K24" s="1">
-        <v>2</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="R24" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="S24" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="T24" s="1">
-        <v>8</v>
-      </c>
-      <c r="U24" s="1">
-        <v>4500</v>
-      </c>
-      <c r="V24" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="25" ht="27" spans="1:22">
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2917,55 +3028,236 @@
         <v>122</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D25" s="1">
         <v>2</v>
       </c>
-      <c r="E25" s="1" t="s">
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D26" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D27" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D28" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" ht="27" spans="1:22">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D29" s="1">
+        <v>3</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H29" s="1">
+        <v>1</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K29" s="1">
+        <v>2</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="S29" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="T29" s="1">
+        <v>8</v>
+      </c>
+      <c r="U29" s="1">
+        <v>4500</v>
+      </c>
+      <c r="V29" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="36" ht="27" spans="1:22">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D36" s="1">
+        <v>2</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F36" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G36" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H25" s="1">
+      <c r="H36" s="1">
         <v>8</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="I36" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="J25" s="1" t="s">
+      <c r="J36" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="K25" s="1">
+      <c r="K36" s="1">
         <v>2</v>
       </c>
-      <c r="L25" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="N25" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="R25" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="S25" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="T25" s="1">
+      <c r="L36" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="R36" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="S36" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="T36" s="1">
         <v>8</v>
       </c>
-      <c r="U25" s="1">
+      <c r="U36" s="1">
         <v>3500</v>
       </c>
-      <c r="V25" s="2" t="s">
-        <v>143</v>
+      <c r="V36" s="2" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -2979,7 +3271,7 @@
   <sheetPr/>
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
@@ -2996,22 +3288,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="2:6">
@@ -3028,7 +3320,7 @@
         <v>26</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="2:6">
@@ -3039,13 +3331,13 @@
         <v>31</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="2:6">
@@ -3062,7 +3354,7 @@
         <v>37</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="2:6">
@@ -3073,13 +3365,13 @@
         <v>39</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="2:6">
@@ -3096,7 +3388,7 @@
         <v>29</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="2:6">
@@ -3107,13 +3399,13 @@
         <v>46</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="2:6">
@@ -3124,13 +3416,13 @@
         <v>51</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="2:6">
@@ -3138,16 +3430,16 @@
         <v>22</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>44</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="2:6">
@@ -3155,16 +3447,16 @@
         <v>22</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="2:6">
@@ -3181,7 +3473,7 @@
         <v>37</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="2:6">
@@ -3198,7 +3490,7 @@
         <v>44</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="2:6">
@@ -3215,7 +3507,7 @@
         <v>26</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="2:6">
@@ -3226,13 +3518,13 @@
         <v>71</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="2:6">
@@ -3249,7 +3541,7 @@
         <v>44</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="2:6">
@@ -3263,10 +3555,10 @@
         <v>11</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="2:6">
@@ -3277,13 +3569,13 @@
         <v>81</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" spans="2:6">
@@ -3297,10 +3589,10 @@
         <v>11</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" ht="27" spans="2:6">
@@ -3311,13 +3603,13 @@
         <v>86</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20" ht="27" spans="2:6">
@@ -3328,13 +3620,13 @@
         <v>91</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
     </row>
     <row r="21" ht="27" spans="2:6">
@@ -3342,16 +3634,16 @@
         <v>22</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
     </row>
     <row r="22" spans="2:6">
@@ -3368,7 +3660,7 @@
         <v>29</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
     </row>
     <row r="23" spans="2:6">
@@ -3379,13 +3671,13 @@
         <v>113</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
     </row>
     <row r="24" spans="2:6">
@@ -3396,13 +3688,13 @@
         <v>116</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
     </row>
     <row r="25" spans="2:6">
@@ -3419,7 +3711,7 @@
         <v>29</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
     </row>
     <row r="26" spans="2:6">
@@ -3430,13 +3722,13 @@
         <v>120</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
     </row>
     <row r="27" spans="2:6">
@@ -3453,7 +3745,7 @@
         <v>35</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
     </row>
     <row r="28" ht="124" customHeight="1" spans="2:6">
@@ -3464,13 +3756,13 @@
         <v>126</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
     </row>
     <row r="29" ht="135" spans="2:6">
@@ -3481,13 +3773,13 @@
         <v>127</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
     </row>
     <row r="30" ht="27" spans="2:6">
@@ -3495,7 +3787,7 @@
         <v>122</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>11</v>
@@ -3504,7 +3796,7 @@
         <v>29</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
     </row>
     <row r="31" ht="27" spans="2:6">
@@ -3512,16 +3804,16 @@
         <v>122</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
     </row>
     <row r="32" spans="2:6">
@@ -3529,7 +3821,7 @@
         <v>122</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>11</v>
@@ -3538,7 +3830,7 @@
         <v>29</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
     </row>
     <row r="33" spans="2:6">
@@ -3546,16 +3838,16 @@
         <v>122</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
     </row>
     <row r="34" spans="2:6">
@@ -3563,16 +3855,16 @@
         <v>122</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>

--- a/资料库/武器库.xlsx
+++ b/资料库/武器库.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9765"/>
+    <workbookView windowWidth="19935" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="武器V3" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="214">
   <si>
     <t>编号</t>
   </si>
@@ -416,7 +416,7 @@
     <t>投掷I</t>
   </si>
   <si>
-    <t>耐久I</t>
+    <t>精制I</t>
   </si>
   <si>
     <t>精心打造的短锤，品质良好不容易坏。超过50%的损失原因都是因为拿来当武器或者掉到拿不到的地方这一点没有人注意到</t>
@@ -428,10 +428,34 @@
     <t>1D6+15</t>
   </si>
   <si>
-    <t>退魔匕首</t>
-  </si>
-  <si>
-    <t>暗夜单手锤</t>
+    <t>封魔苦无</t>
+  </si>
+  <si>
+    <t>导引起爆</t>
+  </si>
+  <si>
+    <t>驱魔I</t>
+  </si>
+  <si>
+    <t>脆弱</t>
+  </si>
+  <si>
+    <t>近战5</t>
+  </si>
+  <si>
+    <t>巫女的传统武器之一。装着驱魔的符咒，休闲时常常会拿来进行投掷比赛</t>
+  </si>
+  <si>
+    <t>工程锤</t>
+  </si>
+  <si>
+    <t>1D20+20</t>
+  </si>
+  <si>
+    <t>粗制I</t>
+  </si>
+  <si>
+    <t>兽族用于工程的锤子。工艺粗糙难以平衡但是结实耐用</t>
   </si>
   <si>
     <t>血肉直剑</t>
@@ -456,9 +480,6 @@
   </si>
   <si>
     <t>力量5</t>
-  </si>
-  <si>
-    <t>近战5</t>
   </si>
   <si>
     <t>使用的时候不小心可以把自己甩出去的重剑。不能按照原本的开发用途来切菜，但是可以拿巨大的刃来挡溅起的油</t>
@@ -696,10 +717,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -725,8 +746,23 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -747,9 +783,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -763,56 +828,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -825,30 +867,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -875,19 +896,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -899,25 +986,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -929,85 +1034,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1025,37 +1052,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1069,21 +1090,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1093,17 +1099,28 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1125,11 +1142,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1143,26 +1158,32 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1171,148 +1192,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1654,14 +1675,14 @@
   <dimension ref="A1:AL36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5" style="1" customWidth="1"/>
     <col min="2" max="2" width="3.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="1"/>
+    <col min="3" max="3" width="10.75" style="1" customWidth="1"/>
     <col min="4" max="4" width="4" style="1" customWidth="1"/>
     <col min="5" max="7" width="9" style="1"/>
     <col min="8" max="8" width="4.25" style="1" customWidth="1"/>
@@ -2899,7 +2920,7 @@
         <v>130</v>
       </c>
       <c r="D22" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>24</v>
@@ -3006,7 +3027,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:22">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -3019,8 +3040,53 @@
       <c r="D24" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K24" s="1">
+        <v>1</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="T24" s="1">
+        <v>1</v>
+      </c>
+      <c r="U24" s="1">
+        <v>500</v>
+      </c>
+      <c r="V24" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -3028,10 +3094,55 @@
         <v>122</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D25" s="1">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H25" s="1">
+        <v>1</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K25" s="1">
+        <v>1</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T25" s="1">
+        <v>4</v>
+      </c>
+      <c r="U25" s="1">
+        <v>600</v>
+      </c>
+      <c r="V25" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -3042,7 +3153,7 @@
         <v>122</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="D26" s="1">
         <v>2</v>
@@ -3056,7 +3167,7 @@
         <v>122</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="D27" s="1">
         <v>2</v>
@@ -3070,7 +3181,7 @@
         <v>122</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="D28" s="1">
         <v>3</v>
@@ -3084,7 +3195,7 @@
         <v>122</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="D29" s="1">
         <v>3</v>
@@ -3093,7 +3204,7 @@
         <v>35</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>37</v>
@@ -3111,19 +3222,19 @@
         <v>2</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="M29" s="1" t="s">
         <v>56</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="S29" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="T29" s="1">
         <v>8</v>
@@ -3132,7 +3243,7 @@
         <v>4500</v>
       </c>
       <c r="V29" s="2" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -3143,7 +3254,7 @@
         <v>122</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -3154,7 +3265,7 @@
         <v>122</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -3165,7 +3276,7 @@
         <v>122</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -3176,7 +3287,7 @@
         <v>122</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -3187,7 +3298,7 @@
         <v>122</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -3198,7 +3309,7 @@
         <v>122</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="36" ht="27" spans="1:22">
@@ -3209,7 +3320,7 @@
         <v>122</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="D36" s="1">
         <v>2</v>
@@ -3236,19 +3347,19 @@
         <v>2</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="R36" s="1" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="S36" s="1" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="T36" s="1">
         <v>8</v>
@@ -3257,7 +3368,7 @@
         <v>3500</v>
       </c>
       <c r="V36" s="2" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -3271,7 +3382,7 @@
   <sheetPr/>
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
@@ -3288,22 +3399,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="2:6">
@@ -3320,7 +3431,7 @@
         <v>26</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="2:6">
@@ -3331,13 +3442,13 @@
         <v>31</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="2:6">
@@ -3354,7 +3465,7 @@
         <v>37</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="2:6">
@@ -3365,13 +3476,13 @@
         <v>39</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="2:6">
@@ -3388,7 +3499,7 @@
         <v>29</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="2:6">
@@ -3399,13 +3510,13 @@
         <v>46</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="2:6">
@@ -3416,13 +3527,13 @@
         <v>51</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="2:6">
@@ -3430,16 +3541,16 @@
         <v>22</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>169</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>44</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="2:6">
@@ -3447,16 +3558,16 @@
         <v>22</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="2:6">
@@ -3473,7 +3584,7 @@
         <v>37</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="2:6">
@@ -3490,7 +3601,7 @@
         <v>44</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="2:6">
@@ -3507,7 +3618,7 @@
         <v>26</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="2:6">
@@ -3518,13 +3629,13 @@
         <v>71</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="2:6">
@@ -3541,7 +3652,7 @@
         <v>44</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16" spans="2:6">
@@ -3555,10 +3666,10 @@
         <v>11</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17" spans="2:6">
@@ -3569,13 +3680,13 @@
         <v>81</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="2:6">
@@ -3589,10 +3700,10 @@
         <v>11</v>
       </c>
       <c r="E18" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="19" ht="27" spans="2:6">
@@ -3603,13 +3714,13 @@
         <v>86</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20" ht="27" spans="2:6">
@@ -3620,13 +3731,13 @@
         <v>91</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21" ht="27" spans="2:6">
@@ -3634,16 +3745,16 @@
         <v>22</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22" spans="2:6">
@@ -3660,7 +3771,7 @@
         <v>29</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
     </row>
     <row r="23" spans="2:6">
@@ -3671,13 +3782,13 @@
         <v>113</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
     </row>
     <row r="24" spans="2:6">
@@ -3688,13 +3799,13 @@
         <v>116</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
     </row>
     <row r="25" spans="2:6">
@@ -3711,7 +3822,7 @@
         <v>29</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
     </row>
     <row r="26" spans="2:6">
@@ -3722,13 +3833,13 @@
         <v>120</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="27" spans="2:6">
@@ -3745,7 +3856,7 @@
         <v>35</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
     </row>
     <row r="28" ht="124" customHeight="1" spans="2:6">
@@ -3756,13 +3867,13 @@
         <v>126</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="29" ht="135" spans="2:6">
@@ -3773,13 +3884,13 @@
         <v>127</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
     </row>
     <row r="30" ht="27" spans="2:6">
@@ -3787,7 +3898,7 @@
         <v>122</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>11</v>
@@ -3796,7 +3907,7 @@
         <v>29</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
     </row>
     <row r="31" ht="27" spans="2:6">
@@ -3804,16 +3915,16 @@
         <v>122</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
     </row>
     <row r="32" spans="2:6">
@@ -3821,7 +3932,7 @@
         <v>122</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>11</v>
@@ -3830,7 +3941,7 @@
         <v>29</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
     </row>
     <row r="33" spans="2:6">
@@ -3838,16 +3949,16 @@
         <v>122</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
     </row>
     <row r="34" spans="2:6">
@@ -3855,16 +3966,16 @@
         <v>122</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>

--- a/资料库/武器库.xlsx
+++ b/资料库/武器库.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19935" windowHeight="7860"/>
+    <workbookView windowWidth="19935" windowHeight="7785"/>
   </bookViews>
   <sheets>
     <sheet name="武器V3" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="230">
   <si>
     <t>编号</t>
   </si>
@@ -410,7 +410,7 @@
     <t>精制短锤</t>
   </si>
   <si>
-    <t>1D6+10</t>
+    <t>2D6+10</t>
   </si>
   <si>
     <t>投掷I</t>
@@ -419,7 +419,7 @@
     <t>精制I</t>
   </si>
   <si>
-    <t>精心打造的短锤，品质良好不容易坏。超过50%的损失原因都是因为拿来当武器或者掉到拿不到的地方这一点没有人注意到</t>
+    <t>精心打造的短锤，品质优良但是容易损坏。威力更大了但是作为钝器耐久不行岂不是本末倒置吗的反映虽然设计师注意到了，但是用“吵死了”这么几个字就给搪塞回去了</t>
   </si>
   <si>
     <t>平衡短剑</t>
@@ -428,9 +428,15 @@
     <t>1D6+15</t>
   </si>
   <si>
+    <t>换用了新材料，调节了整体的中心的短剑。锋利还能快速攻击，很受卫兵欢迎。拿来耍剑花而切到自己的人太多了，正在考虑解决办法</t>
+  </si>
+  <si>
     <t>封魔苦无</t>
   </si>
   <si>
+    <t>1D6+5</t>
+  </si>
+  <si>
     <t>导引起爆</t>
   </si>
   <si>
@@ -455,16 +461,55 @@
     <t>粗制I</t>
   </si>
   <si>
-    <t>兽族用于工程的锤子。工艺粗糙难以平衡但是结实耐用</t>
-  </si>
-  <si>
-    <t>血肉直剑</t>
-  </si>
-  <si>
-    <t>光之刺剑</t>
-  </si>
-  <si>
-    <t>火焰战锤</t>
+    <t>兽族用于工程的锤子。工艺粗糙难以平衡但是结实耐用，如果脱手了砸到人会很痛</t>
+  </si>
+  <si>
+    <t>螳螂刀</t>
+  </si>
+  <si>
+    <t>1D20+30</t>
+  </si>
+  <si>
+    <t>血肉毒素</t>
+  </si>
+  <si>
+    <t>血肉I</t>
+  </si>
+  <si>
+    <t>用剥皮者的镰部制成的武器，挤按手柄的话依然可以从尖端射出毒液的廉价武器。通过巧妙的加工的这个武器依然活着，只要供给养分就能慢慢恢复耐久。烤熟也不能吃</t>
+  </si>
+  <si>
+    <t>星仪斗剑</t>
+  </si>
+  <si>
+    <t>1D20+10</t>
+  </si>
+  <si>
+    <t>星光迸射</t>
+  </si>
+  <si>
+    <t>神圣I</t>
+  </si>
+  <si>
+    <t>由一个不知名的魔法少女发明的武器，可以从尖端发出带有神圣属性的光芒而杀伤敌人，颇受教会的欢迎。过于看重优雅和外表的武器对于魔法少女而言反而不太实用，因此魔法少女的使用者并不多</t>
+  </si>
+  <si>
+    <t>流火战锤</t>
+  </si>
+  <si>
+    <t>1D100+50</t>
+  </si>
+  <si>
+    <t>巨热焚烧</t>
+  </si>
+  <si>
+    <t>火焰I</t>
+  </si>
+  <si>
+    <t>力5</t>
+  </si>
+  <si>
+    <t>原本是大型机械的点火装置进行改造后的武器，按下扳机就能加热至迸发出火焰。让不会魔法的人也能使用火焰攻击实在是令人感激，但是消耗魔力和容易点着自家的房子这点仍需改善</t>
   </si>
   <si>
     <t>宽刃重剑</t>
@@ -485,7 +530,10 @@
     <t>使用的时候不小心可以把自己甩出去的重剑。不能按照原本的开发用途来切菜，但是可以拿巨大的刃来挡溅起的油</t>
   </si>
   <si>
-    <t>闪电破甲剑</t>
+    <t>避雷剑</t>
+  </si>
+  <si>
+    <t>有着如同锥子的形状，圆柱状的手柄意外沉重的武器</t>
   </si>
   <si>
     <t>蓄能拳套</t>
@@ -717,10 +765,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -746,23 +794,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -777,15 +817,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -799,10 +831,26 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -822,23 +870,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -860,6 +892,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -869,7 +909,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -896,13 +944,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -920,163 +1118,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1087,6 +1135,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1101,26 +1164,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1142,18 +1188,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1173,17 +1227,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1192,148 +1240,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1674,8 +1722,8 @@
   <sheetPr/>
   <dimension ref="A1:AL36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+    <sheetView tabSelected="1" topLeftCell="H25" workbookViewId="0">
+      <selection activeCell="V30" sqref="V30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2136,7 +2184,7 @@
         <v>3</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>63</v>
@@ -2248,7 +2296,7 @@
         <v>3</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>74</v>
@@ -2909,7 +2957,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="22" ht="27" spans="1:22">
+    <row r="22" ht="40.5" spans="1:22">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2968,7 +3016,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="23" spans="1:22">
+    <row r="23" ht="27" spans="1:22">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -3024,7 +3072,7 @@
         <v>700</v>
       </c>
       <c r="V23" s="2" t="s">
-        <v>41</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:22">
@@ -3035,7 +3083,7 @@
         <v>122</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D24" s="1">
         <v>1</v>
@@ -3044,7 +3092,7 @@
         <v>42</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>44</v>
@@ -3062,19 +3110,19 @@
         <v>1</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="R24" s="1" t="s">
         <v>29</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="T24" s="1">
         <v>1</v>
@@ -3083,10 +3131,10 @@
         <v>500</v>
       </c>
       <c r="V24" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="25" ht="27" spans="1:22">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -3094,7 +3142,7 @@
         <v>122</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D25" s="1">
         <v>3</v>
@@ -3103,7 +3151,7 @@
         <v>24</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>26</v>
@@ -3127,7 +3175,7 @@
         <v>51</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="R25" s="1" t="s">
         <v>67</v>
@@ -3142,10 +3190,10 @@
         <v>600</v>
       </c>
       <c r="V25" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="26" ht="40.5" spans="1:22">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -3153,13 +3201,58 @@
         <v>122</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D26" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H26" s="1">
+        <v>1</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K26" s="1">
+        <v>1</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T26" s="1">
+        <v>4</v>
+      </c>
+      <c r="U26" s="1">
+        <v>800</v>
+      </c>
+      <c r="V26" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="27" ht="40.5" spans="1:22">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -3167,13 +3260,58 @@
         <v>122</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="D27" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H27" s="1">
+        <v>1</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K27" s="1">
+        <v>2</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T27" s="1">
+        <v>4</v>
+      </c>
+      <c r="U27" s="1">
+        <v>1200</v>
+      </c>
+      <c r="V27" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="28" ht="40.5" spans="1:22">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -3181,10 +3319,55 @@
         <v>122</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="D28" s="1">
         <v>3</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H28" s="1">
+        <v>1</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K28" s="1">
+        <v>1</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="S28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T28" s="1">
+        <v>8</v>
+      </c>
+      <c r="U28" s="1">
+        <v>1500</v>
+      </c>
+      <c r="V28" s="2" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="29" ht="27" spans="1:22">
@@ -3195,7 +3378,7 @@
         <v>122</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="D29" s="1">
         <v>3</v>
@@ -3204,7 +3387,7 @@
         <v>35</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>37</v>
@@ -3222,19 +3405,19 @@
         <v>2</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="M29" s="1" t="s">
         <v>56</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="S29" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="T29" s="1">
         <v>8</v>
@@ -3243,10 +3426,10 @@
         <v>4500</v>
       </c>
       <c r="V29" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -3254,7 +3437,52 @@
         <v>122</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>156</v>
+        <v>171</v>
+      </c>
+      <c r="D30" s="1">
+        <v>3</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H30" s="1">
+        <v>1</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K30" s="1">
+        <v>2</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T30" s="1">
+        <v>8</v>
+      </c>
+      <c r="U30" s="1">
+        <v>1800</v>
+      </c>
+      <c r="V30" s="2" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -3265,7 +3493,7 @@
         <v>122</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -3276,7 +3504,7 @@
         <v>122</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -3287,7 +3515,7 @@
         <v>122</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -3298,7 +3526,7 @@
         <v>122</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -3309,7 +3537,7 @@
         <v>122</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
     </row>
     <row r="36" ht="27" spans="1:22">
@@ -3320,7 +3548,7 @@
         <v>122</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="D36" s="1">
         <v>2</v>
@@ -3347,19 +3575,19 @@
         <v>2</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="R36" s="1" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="S36" s="1" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="T36" s="1">
         <v>8</v>
@@ -3368,7 +3596,7 @@
         <v>3500</v>
       </c>
       <c r="V36" s="2" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -3399,22 +3627,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="2:6">
@@ -3431,7 +3659,7 @@
         <v>26</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="2:6">
@@ -3442,13 +3670,13 @@
         <v>31</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="2:6">
@@ -3465,7 +3693,7 @@
         <v>37</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="2:6">
@@ -3476,13 +3704,13 @@
         <v>39</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="2:6">
@@ -3499,7 +3727,7 @@
         <v>29</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="2:6">
@@ -3510,13 +3738,13 @@
         <v>46</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="2:6">
@@ -3527,13 +3755,13 @@
         <v>51</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="2:6">
@@ -3541,16 +3769,16 @@
         <v>22</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>44</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="2:6">
@@ -3558,16 +3786,16 @@
         <v>22</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="2:6">
@@ -3584,7 +3812,7 @@
         <v>37</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="2:6">
@@ -3601,7 +3829,7 @@
         <v>44</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
     </row>
     <row r="13" spans="2:6">
@@ -3618,7 +3846,7 @@
         <v>26</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
     </row>
     <row r="14" spans="2:6">
@@ -3629,13 +3857,13 @@
         <v>71</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="2:6">
@@ -3652,7 +3880,7 @@
         <v>44</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
     </row>
     <row r="16" spans="2:6">
@@ -3666,10 +3894,10 @@
         <v>11</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17" spans="2:6">
@@ -3680,13 +3908,13 @@
         <v>81</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
     </row>
     <row r="18" spans="2:6">
@@ -3700,10 +3928,10 @@
         <v>11</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
     </row>
     <row r="19" ht="27" spans="2:6">
@@ -3714,13 +3942,13 @@
         <v>86</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
     </row>
     <row r="20" ht="27" spans="2:6">
@@ -3731,13 +3959,13 @@
         <v>91</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
     </row>
     <row r="21" ht="27" spans="2:6">
@@ -3745,16 +3973,16 @@
         <v>22</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
     </row>
     <row r="22" spans="2:6">
@@ -3771,7 +3999,7 @@
         <v>29</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
     </row>
     <row r="23" spans="2:6">
@@ -3782,13 +4010,13 @@
         <v>113</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
     </row>
     <row r="24" spans="2:6">
@@ -3799,13 +4027,13 @@
         <v>116</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
     </row>
     <row r="25" spans="2:6">
@@ -3822,7 +4050,7 @@
         <v>29</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
     </row>
     <row r="26" spans="2:6">
@@ -3833,13 +4061,13 @@
         <v>120</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
     </row>
     <row r="27" spans="2:6">
@@ -3856,7 +4084,7 @@
         <v>35</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
     </row>
     <row r="28" ht="124" customHeight="1" spans="2:6">
@@ -3867,13 +4095,13 @@
         <v>126</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
     </row>
     <row r="29" ht="135" spans="2:6">
@@ -3884,13 +4112,13 @@
         <v>127</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
     </row>
     <row r="30" ht="27" spans="2:6">
@@ -3898,7 +4126,7 @@
         <v>122</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>11</v>
@@ -3907,7 +4135,7 @@
         <v>29</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
     </row>
     <row r="31" ht="27" spans="2:6">
@@ -3915,16 +4143,16 @@
         <v>122</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
     </row>
     <row r="32" spans="2:6">
@@ -3932,7 +4160,7 @@
         <v>122</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>11</v>
@@ -3941,7 +4169,7 @@
         <v>29</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
     </row>
     <row r="33" spans="2:6">
@@ -3949,16 +4177,16 @@
         <v>122</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
     </row>
     <row r="34" spans="2:6">
@@ -3966,16 +4194,16 @@
         <v>122</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>

--- a/资料库/武器库.xlsx
+++ b/资料库/武器库.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19935" windowHeight="7785"/>
+    <workbookView windowWidth="20490" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="武器V3" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="248">
   <si>
     <t>编号</t>
   </si>
@@ -35,6 +35,9 @@
     <t>伤害</t>
   </si>
   <si>
+    <t>附加伤害</t>
+  </si>
+  <si>
     <t>伤害属性</t>
   </si>
   <si>
@@ -44,10 +47,13 @@
     <t>单双手</t>
   </si>
   <si>
-    <t>大小类型</t>
-  </si>
-  <si>
-    <t>穿甲能力</t>
+    <t>大小</t>
+  </si>
+  <si>
+    <t>穿甲</t>
+  </si>
+  <si>
+    <t>最大攻击数</t>
   </si>
   <si>
     <t>特殊攻击</t>
@@ -92,7 +98,10 @@
     <t>锤</t>
   </si>
   <si>
-    <t>1D6+2</t>
+    <t>6D6</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
   <si>
     <t>钝击</t>
@@ -125,9 +134,6 @@
     <t>剑</t>
   </si>
   <si>
-    <t>1D6+3</t>
-  </si>
-  <si>
     <t>撕裂</t>
   </si>
   <si>
@@ -146,9 +152,6 @@
     <t>匕首</t>
   </si>
   <si>
-    <t>1D6+1</t>
-  </si>
-  <si>
     <t>贯穿</t>
   </si>
   <si>
@@ -164,7 +167,10 @@
     <t>单手锤</t>
   </si>
   <si>
-    <t>1D20+4</t>
+    <t>2D20</t>
+  </si>
+  <si>
+    <t>I</t>
   </si>
   <si>
     <t>中</t>
@@ -182,9 +188,6 @@
     <t>直剑</t>
   </si>
   <si>
-    <t>1D20+6</t>
-  </si>
-  <si>
     <t>切断肢体</t>
   </si>
   <si>
@@ -194,9 +197,6 @@
     <t>刺剑</t>
   </si>
   <si>
-    <t>1D20+2</t>
-  </si>
-  <si>
     <t>弱点穿刺</t>
   </si>
   <si>
@@ -206,7 +206,7 @@
     <t>战锤</t>
   </si>
   <si>
-    <t>1D100+10</t>
+    <t>1D100</t>
   </si>
   <si>
     <t>双</t>
@@ -227,9 +227,6 @@
     <t>双手剑</t>
   </si>
   <si>
-    <t>1D100+15</t>
-  </si>
-  <si>
     <t>斩首</t>
   </si>
   <si>
@@ -239,9 +236,6 @@
     <t>破甲剑</t>
   </si>
   <si>
-    <t>1D100+5</t>
-  </si>
-  <si>
     <t>凿穿关节</t>
   </si>
   <si>
@@ -251,9 +245,6 @@
     <t>拳套</t>
   </si>
   <si>
-    <t>1D6</t>
-  </si>
-  <si>
     <t>特殊</t>
   </si>
   <si>
@@ -302,7 +293,7 @@
     <t>火枪</t>
   </si>
   <si>
-    <t>5D6+10</t>
+    <t>4D20</t>
   </si>
   <si>
     <t>隧发枪I</t>
@@ -317,6 +308,9 @@
     <t>十字弩</t>
   </si>
   <si>
+    <t>II</t>
+  </si>
+  <si>
     <t>敏2</t>
   </si>
   <si>
@@ -332,7 +326,7 @@
     <t>短枪</t>
   </si>
   <si>
-    <t>5D20+10</t>
+    <t>6D20</t>
   </si>
   <si>
     <t>枪托砸击</t>
@@ -350,7 +344,7 @@
     <t>魔导器</t>
   </si>
   <si>
-    <t>1D6-3</t>
+    <t>3D6</t>
   </si>
   <si>
     <t>弱点攻击</t>
@@ -386,12 +380,237 @@
     <t>T2</t>
   </si>
   <si>
+    <t>精制短锤</t>
+  </si>
+  <si>
+    <t>9D6</t>
+  </si>
+  <si>
+    <t>投掷I</t>
+  </si>
+  <si>
+    <t>精制I</t>
+  </si>
+  <si>
+    <t>精心打造的短锤，品质优良但是容易损坏。威力更大了但是作为钝器耐久不行岂不是本末倒置吗的反映虽然设计师注意到了，但是用“吵死了”这么几个字就给搪塞回去了</t>
+  </si>
+  <si>
+    <t>平衡短剑</t>
+  </si>
+  <si>
+    <t>换用了新材料，调节了整体的中心的短剑。锋利还能快速攻击，很受卫兵欢迎。拿来耍剑花而切到自己的人太多了，正在考虑解决办法</t>
+  </si>
+  <si>
+    <t>封魔苦无</t>
+  </si>
+  <si>
+    <t>导引起爆</t>
+  </si>
+  <si>
+    <t>驱魔I</t>
+  </si>
+  <si>
+    <t>脆弱</t>
+  </si>
+  <si>
+    <t>近战5</t>
+  </si>
+  <si>
+    <t>巫女的传统武器之一。装着驱魔的符咒，休闲时常常会拿来进行投掷比赛</t>
+  </si>
+  <si>
+    <t>工程锤</t>
+  </si>
+  <si>
+    <t>3D20</t>
+  </si>
+  <si>
+    <t>粗制I</t>
+  </si>
+  <si>
+    <t>兽族用于工程的锤子。工艺粗糙难以平衡但是结实耐用，如果脱手了砸到人会很痛</t>
+  </si>
+  <si>
+    <t>螳螂刀</t>
+  </si>
+  <si>
+    <t>血肉毒素</t>
+  </si>
+  <si>
+    <t>血肉I</t>
+  </si>
+  <si>
+    <t>用剥皮者的镰部制成的武器，挤按手柄的话依然可以从尖端射出毒液的廉价武器。通过巧妙的加工的这个武器依然活着，只要供给养分就能慢慢恢复耐久。烤熟也不能吃</t>
+  </si>
+  <si>
+    <t>星仪斗剑</t>
+  </si>
+  <si>
+    <t>星光迸射</t>
+  </si>
+  <si>
+    <t>神圣I</t>
+  </si>
+  <si>
+    <t>由一个不知名的魔法少女发明的武器，可以从尖端发出带有神圣属性的光芒而杀伤敌人，颇受教会的欢迎。过于看重优雅和外表的武器对于魔法少女而言反而不太实用，因此魔法少女的使用者并不多</t>
+  </si>
+  <si>
+    <t>流火战锤</t>
+  </si>
+  <si>
+    <t>III</t>
+  </si>
+  <si>
+    <t>巨热焚烧</t>
+  </si>
+  <si>
+    <t>火焰I</t>
+  </si>
+  <si>
+    <t>力5</t>
+  </si>
+  <si>
+    <t>原本是大型机械的点火装置进行改造后的武器，按下扳机就能加热至迸发出火焰。让不会魔法的人也能使用火焰攻击实在是令人感激，但是消耗魔力和容易点着自家的房子这点仍需改善</t>
+  </si>
+  <si>
+    <t>宽刃重剑</t>
+  </si>
+  <si>
+    <t>借势攻击</t>
+  </si>
+  <si>
+    <t>巨刃格挡</t>
+  </si>
+  <si>
+    <t>力量5</t>
+  </si>
+  <si>
+    <t>使用的时候不小心可以把自己甩出去的重剑。不能按照原本的开发用途来切菜，但是可以拿巨大的刃来挡溅起的油</t>
+  </si>
+  <si>
+    <t>避雷剑</t>
+  </si>
+  <si>
+    <t>蓄能雷电</t>
+  </si>
+  <si>
+    <t>雷电储存I</t>
+  </si>
+  <si>
+    <t>有着如同锥子的形状，圆柱状的手柄意外沉重的武器。不仅能将雷电传入预先设置好了的电池中储存起来，还能反过来放出雷电攻击对手。小心不要让电池超载了，会很疼的</t>
+  </si>
+  <si>
+    <t>锐爪拳套</t>
+  </si>
+  <si>
+    <t>变形武器</t>
+  </si>
+  <si>
+    <t>弹簧爪</t>
+  </si>
+  <si>
+    <t>刺客喜欢的武器之一，不影响行动的同时利刃可以有各种用途，精密结构不好维修，但是强度足够来进行常规格斗战。哪怕是误会太多也别拿来装扮成猫娘</t>
+  </si>
+  <si>
+    <t>复合短弩</t>
+  </si>
+  <si>
+    <t>带有滑轮装置和复合弓体的短弩，能发挥出超过普通短弩的威力。如果弄坏了会很心疼</t>
+  </si>
+  <si>
+    <t>散射短弓</t>
+  </si>
+  <si>
+    <t>复合射击I</t>
+  </si>
+  <si>
+    <t>装上了辅助箭槽的弓体让使用者可以在不需要额外技巧的情况一次性发射多发箭矢。弓体强度和精准度下降了这一点就请不要在意了</t>
+  </si>
+  <si>
+    <t>左轮手枪</t>
+  </si>
+  <si>
+    <t>左轮枪I</t>
+  </si>
+  <si>
+    <t>单动扳机</t>
+  </si>
+  <si>
+    <t>采用蜂巢式的弹巢，一次可以装入5发子弹。只要用手指复位击锤就能轻松开火，但是依然很怕潮湿。很酷的人可以一次装入5发子弹，笨孩子就不要尝试了</t>
+  </si>
+  <si>
+    <t>折叠十字弩</t>
+  </si>
+  <si>
+    <t>折叠式I</t>
+  </si>
+  <si>
+    <t>发射机构和托把部分可以变形折叠的双手十字弩。威力比起普通的十字弩而言没有太多变化，但是更便于携带了。使用之前别忘了展开哦</t>
+  </si>
+  <si>
+    <t>大和长弓</t>
+  </si>
+  <si>
+    <t>穿甲射击</t>
+  </si>
+  <si>
+    <t>曲射I</t>
+  </si>
+  <si>
+    <t>靶向射击</t>
+  </si>
+  <si>
+    <t>力量5敏捷3</t>
+  </si>
+  <si>
+    <t>弓弩5</t>
+  </si>
+  <si>
+    <t>超过1米的巨大长弓，可以射出沉重的箭头，为什么叫这个名字还无人得知。抛射可以打击掩体后面的敌人，但是不适合巨乳的人使用</t>
+  </si>
+  <si>
+    <t>铁碎猎枪</t>
+  </si>
+  <si>
+    <t>散弹枪</t>
+  </si>
+  <si>
+    <t>9D20</t>
+  </si>
+  <si>
+    <t>静谧之杖</t>
+  </si>
+  <si>
+    <t>5D6</t>
+  </si>
+  <si>
+    <t>静谧I</t>
+  </si>
+  <si>
+    <t>经过特别调制的魔法石可以在持握时自动投射能降低声响的静谧立场，很受刺客喜欢。再怎么说也太短了，不要试图用它来格挡攻击</t>
+  </si>
+  <si>
+    <t>怒炎权杖</t>
+  </si>
+  <si>
+    <t>火焰增强I</t>
+  </si>
+  <si>
+    <t>吸收了魔力之后便能一直燃烧的权杖。上面的猎巫人特制的魔纹还能增强火焰的威力。时不时地就会有笨蛋忘了它在魔力消耗上的缺点拿来当火炬用，最后落得魔力被吸干的下场</t>
+  </si>
+  <si>
+    <t>装填式法杖</t>
+  </si>
+  <si>
+    <t>魔法装填I</t>
+  </si>
+  <si>
+    <t>细长的可以双手持握的法杖。特殊的机构让它可以用射弹的方式发射其中储存的魔法</t>
+  </si>
+  <si>
     <t>思慕之剑</t>
   </si>
   <si>
-    <t>2D20+6</t>
-  </si>
-  <si>
     <t>剑刃风暴</t>
   </si>
   <si>
@@ -405,171 +624,6 @@
   </si>
   <si>
     <t>有着仿佛经过烈火烧灼般接近融毁的剑刃，手柄红色的线绳上挂着一个吊坠。“龙啊，如果不能给予我你的爱，那么请刺穿我的心”</t>
-  </si>
-  <si>
-    <t>精制短锤</t>
-  </si>
-  <si>
-    <t>2D6+10</t>
-  </si>
-  <si>
-    <t>投掷I</t>
-  </si>
-  <si>
-    <t>精制I</t>
-  </si>
-  <si>
-    <t>精心打造的短锤，品质优良但是容易损坏。威力更大了但是作为钝器耐久不行岂不是本末倒置吗的反映虽然设计师注意到了，但是用“吵死了”这么几个字就给搪塞回去了</t>
-  </si>
-  <si>
-    <t>平衡短剑</t>
-  </si>
-  <si>
-    <t>1D6+15</t>
-  </si>
-  <si>
-    <t>换用了新材料，调节了整体的中心的短剑。锋利还能快速攻击，很受卫兵欢迎。拿来耍剑花而切到自己的人太多了，正在考虑解决办法</t>
-  </si>
-  <si>
-    <t>封魔苦无</t>
-  </si>
-  <si>
-    <t>1D6+5</t>
-  </si>
-  <si>
-    <t>导引起爆</t>
-  </si>
-  <si>
-    <t>驱魔I</t>
-  </si>
-  <si>
-    <t>脆弱</t>
-  </si>
-  <si>
-    <t>近战5</t>
-  </si>
-  <si>
-    <t>巫女的传统武器之一。装着驱魔的符咒，休闲时常常会拿来进行投掷比赛</t>
-  </si>
-  <si>
-    <t>工程锤</t>
-  </si>
-  <si>
-    <t>1D20+20</t>
-  </si>
-  <si>
-    <t>粗制I</t>
-  </si>
-  <si>
-    <t>兽族用于工程的锤子。工艺粗糙难以平衡但是结实耐用，如果脱手了砸到人会很痛</t>
-  </si>
-  <si>
-    <t>螳螂刀</t>
-  </si>
-  <si>
-    <t>1D20+30</t>
-  </si>
-  <si>
-    <t>血肉毒素</t>
-  </si>
-  <si>
-    <t>血肉I</t>
-  </si>
-  <si>
-    <t>用剥皮者的镰部制成的武器，挤按手柄的话依然可以从尖端射出毒液的廉价武器。通过巧妙的加工的这个武器依然活着，只要供给养分就能慢慢恢复耐久。烤熟也不能吃</t>
-  </si>
-  <si>
-    <t>星仪斗剑</t>
-  </si>
-  <si>
-    <t>1D20+10</t>
-  </si>
-  <si>
-    <t>星光迸射</t>
-  </si>
-  <si>
-    <t>神圣I</t>
-  </si>
-  <si>
-    <t>由一个不知名的魔法少女发明的武器，可以从尖端发出带有神圣属性的光芒而杀伤敌人，颇受教会的欢迎。过于看重优雅和外表的武器对于魔法少女而言反而不太实用，因此魔法少女的使用者并不多</t>
-  </si>
-  <si>
-    <t>流火战锤</t>
-  </si>
-  <si>
-    <t>1D100+50</t>
-  </si>
-  <si>
-    <t>巨热焚烧</t>
-  </si>
-  <si>
-    <t>火焰I</t>
-  </si>
-  <si>
-    <t>力5</t>
-  </si>
-  <si>
-    <t>原本是大型机械的点火装置进行改造后的武器，按下扳机就能加热至迸发出火焰。让不会魔法的人也能使用火焰攻击实在是令人感激，但是消耗魔力和容易点着自家的房子这点仍需改善</t>
-  </si>
-  <si>
-    <t>宽刃重剑</t>
-  </si>
-  <si>
-    <t>1D100+30</t>
-  </si>
-  <si>
-    <t>借势攻击</t>
-  </si>
-  <si>
-    <t>巨刃格挡</t>
-  </si>
-  <si>
-    <t>力量5</t>
-  </si>
-  <si>
-    <t>使用的时候不小心可以把自己甩出去的重剑。不能按照原本的开发用途来切菜，但是可以拿巨大的刃来挡溅起的油</t>
-  </si>
-  <si>
-    <t>避雷剑</t>
-  </si>
-  <si>
-    <t>有着如同锥子的形状，圆柱状的手柄意外沉重的武器</t>
-  </si>
-  <si>
-    <t>蓄能拳套</t>
-  </si>
-  <si>
-    <t>复合短弩</t>
-  </si>
-  <si>
-    <t>散射短弓</t>
-  </si>
-  <si>
-    <t>左轮手枪</t>
-  </si>
-  <si>
-    <t>重击十字弩</t>
-  </si>
-  <si>
-    <t>大和长弓</t>
-  </si>
-  <si>
-    <t>穿甲射击</t>
-  </si>
-  <si>
-    <t>曲射I</t>
-  </si>
-  <si>
-    <t>靶向射击</t>
-  </si>
-  <si>
-    <t>力量5敏捷3</t>
-  </si>
-  <si>
-    <t>弓弩5</t>
-  </si>
-  <si>
-    <t>超过1米的巨大长弓，可以射出沉重的箭头，为什么叫这个名字还无人得知。抛射可以打击掩体后面的敌人，但是不适合巨乳的人使用</t>
   </si>
   <si>
     <t>梯阶</t>
@@ -765,15 +819,30 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -786,6 +855,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -795,14 +901,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -816,13 +915,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -839,85 +970,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -944,13 +998,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -962,37 +1118,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1004,19 +1142,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1034,13 +1160,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1052,79 +1178,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1135,6 +1189,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1156,32 +1219,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1193,21 +1232,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1231,7 +1255,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1240,148 +1294,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1720,10 +1774,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AL36"/>
+  <dimension ref="A1:AN60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H25" workbookViewId="0">
-      <selection activeCell="V30" sqref="V30"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1732,25 +1786,29 @@
     <col min="2" max="2" width="3.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.75" style="1" customWidth="1"/>
     <col min="4" max="4" width="4" style="1" customWidth="1"/>
-    <col min="5" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="4.25" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9" style="1"/>
-    <col min="10" max="10" width="4.375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="4.25" style="1" customWidth="1"/>
-    <col min="12" max="13" width="9" style="1"/>
-    <col min="14" max="14" width="9.625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="5.625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="6.625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="1" style="1" customWidth="1"/>
-    <col min="18" max="18" width="10" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="1"/>
+    <col min="7" max="7" width="7.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="1"/>
+    <col min="9" max="9" width="4.25" style="1" customWidth="1"/>
+    <col min="10" max="10" width="6.125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="4.625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="4.25" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9.875" style="1" customWidth="1"/>
+    <col min="14" max="15" width="9" style="1"/>
+    <col min="16" max="16" width="9.625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="5.625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="6.625" style="1" customWidth="1"/>
     <col min="19" max="19" width="5.375" style="1" customWidth="1"/>
-    <col min="20" max="20" width="1.75" style="1" customWidth="1"/>
-    <col min="21" max="21" width="9" style="1"/>
-    <col min="22" max="22" width="65.5" style="2" customWidth="1"/>
-    <col min="23" max="16384" width="9" style="1"/>
+    <col min="20" max="20" width="10" style="1" customWidth="1"/>
+    <col min="21" max="21" width="5.375" style="1" customWidth="1"/>
+    <col min="22" max="22" width="9.375" style="1" customWidth="1"/>
+    <col min="23" max="23" width="9" style="1"/>
+    <col min="24" max="24" width="65.5" style="2" customWidth="1"/>
+    <col min="25" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:38">
+    <row r="1" s="1" customFormat="1" spans="1:40">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1814,11 +1872,15 @@
       <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="Y1" s="4"/>
       <c r="Z1" s="4"/>
       <c r="AA1" s="4"/>
@@ -1833,349 +1895,387 @@
       <c r="AJ1" s="4"/>
       <c r="AK1" s="4"/>
       <c r="AL1" s="4"/>
-    </row>
-    <row r="2" spans="1:22">
+      <c r="AM1" s="4"/>
+      <c r="AN1" s="4"/>
+    </row>
+    <row r="2" spans="1:24">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="1">
+        <v>28</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="1">
         <v>0</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="J2" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T2" s="1">
+        <v>32</v>
+      </c>
+      <c r="M2" s="1">
+        <v>3</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V2" s="1">
         <v>2</v>
       </c>
-      <c r="U2" s="1">
+      <c r="W2" s="1">
         <v>350</v>
       </c>
-      <c r="V2" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22">
+      <c r="X2" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" s="1">
+        <v>28</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="1">
         <v>0</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="J3" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="R3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="1">
+        <v>3</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="S3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T3" s="1">
+      <c r="O3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V3" s="1">
         <v>2</v>
       </c>
-      <c r="U3" s="1">
+      <c r="W3" s="1">
         <v>400</v>
       </c>
-      <c r="V3" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22">
+      <c r="X3" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H4" s="1">
+        <v>28</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" s="1">
         <v>0</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="J4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="1">
-        <v>1</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1</v>
+      </c>
+      <c r="M4" s="1">
+        <v>3</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="R4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T4" s="1">
-        <v>1</v>
-      </c>
-      <c r="U4" s="1">
+      <c r="O4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V4" s="1">
+        <v>1</v>
+      </c>
+      <c r="W4" s="1">
         <v>150</v>
       </c>
-      <c r="V4" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22">
+      <c r="X4" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D5" s="1">
         <v>2</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="1">
-        <v>1</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>27</v>
+        <v>51</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K5" s="1">
-        <v>1</v>
-      </c>
-      <c r="L5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="R5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="S5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T5" s="1">
+      <c r="L5" s="1">
+        <v>1</v>
+      </c>
+      <c r="M5" s="1">
+        <v>2</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V5" s="1">
         <v>4</v>
       </c>
-      <c r="U5" s="1">
+      <c r="W5" s="1">
         <v>600</v>
       </c>
-      <c r="V5" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22">
+      <c r="X5" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D6" s="1">
         <v>2</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1</v>
+      </c>
+      <c r="M6" s="1">
+        <v>2</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6" s="1">
-        <v>1</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K6" s="1">
-        <v>1</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T6" s="1">
+      <c r="U6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V6" s="1">
         <v>4</v>
       </c>
-      <c r="U6" s="1">
+      <c r="W6" s="1">
         <v>800</v>
       </c>
-      <c r="V6" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22">
+      <c r="X6" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D7" s="1">
         <v>2</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H7" s="1">
-        <v>1</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>27</v>
+        <v>51</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K7" s="1">
+        <v>30</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L7" s="1">
         <v>2</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="M7" s="1">
+        <v>2</v>
+      </c>
+      <c r="N7" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="M7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T7" s="1">
+      <c r="O7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V7" s="1">
         <v>4</v>
       </c>
-      <c r="U7" s="1">
+      <c r="W7" s="1">
         <v>1200</v>
       </c>
-      <c r="V7" s="2" t="s">
+      <c r="X7" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:24">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>62</v>
@@ -2184,54 +2284,60 @@
         <v>3</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>63</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" s="1">
-        <v>1</v>
-      </c>
-      <c r="I8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="K8" s="1">
-        <v>1</v>
-      </c>
-      <c r="L8" s="1" t="s">
+      <c r="L8" s="1">
+        <v>1</v>
+      </c>
+      <c r="M8" s="1">
+        <v>1</v>
+      </c>
+      <c r="N8" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="M8" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="R8" s="1" t="s">
+      <c r="O8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="T8" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="S8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T8" s="1">
+      <c r="U8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V8" s="1">
         <v>8</v>
       </c>
-      <c r="U8" s="1">
+      <c r="W8" s="1">
         <v>1500</v>
       </c>
-      <c r="V8" s="2" t="s">
+      <c r="X8" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:24">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>69</v>
@@ -2240,1363 +2346,2028 @@
         <v>3</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1</v>
+      </c>
+      <c r="M9" s="1">
+        <v>1</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O9" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9" s="1">
-        <v>1</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K9" s="1">
-        <v>1</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="M9" s="1" t="s">
+      <c r="T9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V9" s="1">
+        <v>8</v>
+      </c>
+      <c r="W9" s="1">
+        <v>2000</v>
+      </c>
+      <c r="X9" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="R9" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T9" s="1">
-        <v>8</v>
-      </c>
-      <c r="U9" s="1">
-        <v>2000</v>
-      </c>
-      <c r="V9" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22">
+    </row>
+    <row r="10" spans="1:24">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D10" s="1">
         <v>3</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L10" s="1">
+        <v>2</v>
+      </c>
+      <c r="M10" s="1">
+        <v>1</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="T10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="U10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V10" s="1">
+        <v>8</v>
+      </c>
+      <c r="W10" s="1">
+        <v>1800</v>
+      </c>
+      <c r="X10" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H10" s="1">
-        <v>1</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K10" s="1">
-        <v>2</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="R10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="S10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T10" s="1">
-        <v>8</v>
-      </c>
-      <c r="U10" s="1">
-        <v>1800</v>
-      </c>
-      <c r="V10" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22">
+    </row>
+    <row r="11" spans="1:24">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M11" s="1">
+        <v>3</v>
+      </c>
+      <c r="N11" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F11" s="1" t="s">
+      <c r="O11" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0</v>
-      </c>
-      <c r="I11" s="1" t="s">
+      <c r="T11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V11" s="1">
+        <v>1</v>
+      </c>
+      <c r="W11" s="1">
+        <v>50</v>
+      </c>
+      <c r="X11" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="R11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="S11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T11" s="1">
-        <v>1</v>
-      </c>
-      <c r="U11" s="1">
-        <v>50</v>
-      </c>
-      <c r="V11" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22">
+    </row>
+    <row r="12" spans="1:24">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" s="1">
+        <v>4</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M12" s="1">
+        <v>1</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="O12" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D12" s="1">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1" t="s">
+      <c r="T12" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H12" s="1">
-        <v>4</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L12" s="1" t="s">
+      <c r="U12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V12" s="1">
+        <v>3</v>
+      </c>
+      <c r="W12" s="1">
+        <v>1000</v>
+      </c>
+      <c r="X12" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="M12" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="S12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T12" s="1">
-        <v>3</v>
-      </c>
-      <c r="U12" s="1">
-        <v>1000</v>
-      </c>
-      <c r="V12" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22">
+    </row>
+    <row r="13" spans="1:24">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" s="1">
+        <v>4</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M13" s="1">
+        <v>1</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V13" s="1">
+        <v>4</v>
+      </c>
+      <c r="W13" s="1">
+        <v>800</v>
+      </c>
+      <c r="X13" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H13" s="1">
-        <v>4</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="R13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="S13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T13" s="1">
-        <v>4</v>
-      </c>
-      <c r="U13" s="1">
-        <v>800</v>
-      </c>
-      <c r="V13" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22">
+    </row>
+    <row r="14" spans="1:24">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I14" s="1">
+        <v>3</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L14" s="1">
+        <v>1</v>
+      </c>
+      <c r="M14" s="1">
+        <v>1</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="O14" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D14" s="1">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1" t="s">
+      <c r="T14" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="U14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V14" s="1">
+        <v>2</v>
+      </c>
+      <c r="W14" s="1">
+        <v>2000</v>
+      </c>
+      <c r="X14" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H14" s="1">
-        <v>3</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K14" s="1">
-        <v>1</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="S14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T14" s="1">
-        <v>2</v>
-      </c>
-      <c r="U14" s="1">
-        <v>2000</v>
-      </c>
-      <c r="V14" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22">
+    </row>
+    <row r="15" spans="1:24">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D15" s="1">
         <v>2</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H15" s="1">
+        <v>97</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15" s="1">
         <v>6</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="J15" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="J15" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K15" s="1">
-        <v>1</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="R15" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="S15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T15" s="1">
+      <c r="K15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L15" s="1">
+        <v>1</v>
+      </c>
+      <c r="M15" s="1">
+        <v>1</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V15" s="1">
         <v>4</v>
       </c>
-      <c r="U15" s="1">
+      <c r="W15" s="1">
         <v>1500</v>
       </c>
-      <c r="V15" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22">
+      <c r="X15" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D16" s="1">
         <v>2</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H16" s="1">
+        <v>97</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I16" s="1">
         <v>6</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="J16" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="J16" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K16" s="1">
-        <v>1</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="R16" s="1" t="s">
+      <c r="K16" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="S16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T16" s="1">
+      <c r="L16" s="1">
+        <v>1</v>
+      </c>
+      <c r="M16" s="1">
+        <v>1</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V16" s="1">
         <v>6</v>
       </c>
-      <c r="U16" s="1">
+      <c r="W16" s="1">
         <v>1200</v>
       </c>
-      <c r="V16" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22">
+      <c r="X16" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D17" s="1">
         <v>2</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F17" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I17" s="1">
+        <v>6</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L17" s="1">
+        <v>2</v>
+      </c>
+      <c r="M17" s="1">
+        <v>1</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="T17" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H17" s="1">
-        <v>6</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K17" s="1">
-        <v>2</v>
-      </c>
-      <c r="L17" s="1" t="s">
+      <c r="U17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V17" s="1">
+        <v>4</v>
+      </c>
+      <c r="W17" s="1">
+        <v>2700</v>
+      </c>
+      <c r="X17" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="M17" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="R17" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="S17" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T17" s="1">
-        <v>4</v>
-      </c>
-      <c r="U17" s="1">
-        <v>2700</v>
-      </c>
-      <c r="V17" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22">
+    </row>
+    <row r="18" spans="1:24">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D18" s="1">
         <v>2</v>
       </c>
       <c r="E18" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M18" s="1">
+        <v>2</v>
+      </c>
+      <c r="N18" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="O18" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H18" s="1">
-        <v>0</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L18" s="1" t="s">
+      <c r="T18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V18" s="1">
+        <v>1</v>
+      </c>
+      <c r="W18" s="1">
+        <v>700</v>
+      </c>
+      <c r="X18" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="M18" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="R18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="S18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T18" s="1">
-        <v>1</v>
-      </c>
-      <c r="U18" s="1">
-        <v>700</v>
-      </c>
-      <c r="V18" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22">
+    </row>
+    <row r="19" spans="1:24">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D19" s="1">
         <v>2</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H19" s="1">
-        <v>1</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I19" s="1">
+        <v>1</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="R19" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T19" s="1">
+        <v>32</v>
+      </c>
+      <c r="M19" s="1">
+        <v>1</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V19" s="1">
         <v>2</v>
       </c>
-      <c r="U19" s="1">
+      <c r="W19" s="1">
         <v>1100</v>
       </c>
-      <c r="V19" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22">
+      <c r="X19" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D20" s="1">
         <v>2</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H20" s="1">
-        <v>1</v>
-      </c>
-      <c r="I20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1</v>
+      </c>
+      <c r="J20" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="K20" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="K20" s="1">
-        <v>1</v>
-      </c>
-      <c r="L20" s="1" t="s">
+      <c r="L20" s="1">
+        <v>1</v>
+      </c>
+      <c r="M20" s="1">
+        <v>1</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V20" s="1">
+        <v>5</v>
+      </c>
+      <c r="W20" s="1">
+        <v>1500</v>
+      </c>
+      <c r="X20" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="M20" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="R20" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="S20" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T20" s="1">
-        <v>5</v>
-      </c>
-      <c r="U20" s="1">
-        <v>1500</v>
-      </c>
-      <c r="V20" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="21" ht="27" spans="1:22">
+    </row>
+    <row r="21" ht="40.5" spans="1:24">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="G21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M21" s="1">
+        <v>3</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O21" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D21" s="1">
-        <v>3</v>
-      </c>
-      <c r="E21" s="1" t="s">
+      <c r="P21" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="T21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H21" s="1">
-        <v>1</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K21" s="1">
-        <v>1</v>
-      </c>
-      <c r="L21" s="1" t="s">
+      <c r="U21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V21" s="1">
+        <v>2</v>
+      </c>
+      <c r="W21" s="1">
+        <v>550</v>
+      </c>
+      <c r="X21" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="M21" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="R21" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="S21" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T21" s="1">
-        <v>4</v>
-      </c>
-      <c r="U21" s="1">
-        <v>15000</v>
-      </c>
-      <c r="V21" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="22" ht="40.5" spans="1:22">
+    </row>
+    <row r="22" ht="27" spans="1:24">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D22" s="1">
-        <v>1</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>131</v>
-      </c>
       <c r="G22" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H22" s="1">
+        <v>51</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" s="1">
         <v>0</v>
       </c>
-      <c r="I22" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="J22" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>132</v>
+        <v>32</v>
+      </c>
+      <c r="M22" s="1">
+        <v>3</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="R22" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="S22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T22" s="1">
+        <v>40</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V22" s="1">
         <v>2</v>
       </c>
-      <c r="U22" s="1">
-        <v>550</v>
-      </c>
-      <c r="V22" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="23" ht="27" spans="1:22">
+      <c r="W22" s="1">
+        <v>700</v>
+      </c>
+      <c r="X22" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D23" s="1">
-        <v>1</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>136</v>
-      </c>
       <c r="G23" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H23" s="1">
+        <v>51</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I23" s="1">
         <v>0</v>
       </c>
-      <c r="I23" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="J23" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
+      </c>
+      <c r="L23" s="1">
+        <v>1</v>
+      </c>
+      <c r="M23" s="1">
+        <v>3</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="R23" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S23" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T23" s="1">
-        <v>2</v>
-      </c>
-      <c r="U23" s="1">
-        <v>700</v>
-      </c>
-      <c r="V23" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22">
+        <v>129</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U23" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="V23" s="1">
+        <v>1</v>
+      </c>
+      <c r="W23" s="1">
+        <v>500</v>
+      </c>
+      <c r="X23" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="24" ht="27" spans="1:24">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D24" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H24" s="1">
-        <v>0</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>27</v>
+        <v>97</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I24" s="1">
+        <v>1</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K24" s="1">
-        <v>1</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>141</v>
+        <v>30</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L24" s="1">
+        <v>1</v>
+      </c>
+      <c r="M24" s="1">
+        <v>2</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="R24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="S24" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="T24" s="1">
-        <v>1</v>
-      </c>
-      <c r="U24" s="1">
-        <v>500</v>
-      </c>
-      <c r="V24" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="25" ht="27" spans="1:22">
+        <v>33</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="T24" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V24" s="1">
+        <v>4</v>
+      </c>
+      <c r="W24" s="1">
+        <v>600</v>
+      </c>
+      <c r="X24" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="25" ht="40.5" spans="1:24">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="D25" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H25" s="1">
-        <v>1</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>27</v>
+        <v>97</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I25" s="1">
+        <v>1</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K25" s="1">
-        <v>1</v>
-      </c>
-      <c r="L25" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M25" s="1" t="s">
-        <v>51</v>
+      <c r="K25" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L25" s="1">
+        <v>1</v>
+      </c>
+      <c r="M25" s="1">
+        <v>2</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="R25" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="S25" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T25" s="1">
+        <v>139</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="T25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="U25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V25" s="1">
         <v>4</v>
       </c>
-      <c r="U25" s="1">
-        <v>600</v>
-      </c>
-      <c r="V25" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="26" ht="40.5" spans="1:22">
+      <c r="W25" s="1">
+        <v>800</v>
+      </c>
+      <c r="X25" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="26" ht="40.5" spans="1:24">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="D26" s="1">
         <v>2</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H26" s="1">
-        <v>1</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>27</v>
+        <v>97</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I26" s="1">
+        <v>1</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K26" s="1">
-        <v>1</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L26" s="1">
+        <v>2</v>
+      </c>
+      <c r="M26" s="1">
+        <v>2</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="R26" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="S26" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T26" s="1">
+        <v>143</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="T26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V26" s="1">
         <v>4</v>
       </c>
-      <c r="U26" s="1">
-        <v>800</v>
-      </c>
-      <c r="V26" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="27" ht="40.5" spans="1:22">
+      <c r="W26" s="1">
+        <v>1200</v>
+      </c>
+      <c r="X26" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="27" ht="40.5" spans="1:24">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="D27" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>155</v>
+        <v>63</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H27" s="1">
-        <v>1</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>27</v>
+        <v>147</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I27" s="1">
+        <v>1</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K27" s="1">
-        <v>2</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="M27" s="1" t="s">
-        <v>46</v>
+        <v>64</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L27" s="1">
+        <v>1</v>
+      </c>
+      <c r="M27" s="1">
+        <v>1</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="R27" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S27" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T27" s="1">
-        <v>4</v>
-      </c>
-      <c r="U27" s="1">
-        <v>1200</v>
-      </c>
-      <c r="V27" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="28" ht="40.5" spans="1:22">
+        <v>148</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="T27" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="U27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V27" s="1">
+        <v>8</v>
+      </c>
+      <c r="W27" s="1">
+        <v>1500</v>
+      </c>
+      <c r="X27" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="28" ht="27" spans="1:24">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D28" s="1">
         <v>3</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>160</v>
+        <v>63</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H28" s="1">
-        <v>1</v>
-      </c>
-      <c r="I28" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I28" s="1">
+        <v>1</v>
+      </c>
+      <c r="J28" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="J28" s="1" t="s">
+      <c r="K28" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="K28" s="1">
-        <v>1</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="M28" s="1" t="s">
-        <v>51</v>
+      <c r="L28" s="1">
+        <v>2</v>
+      </c>
+      <c r="M28" s="1">
+        <v>1</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="R28" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="S28" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T28" s="1">
+        <v>153</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="T28" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="U28" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="V28" s="1">
         <v>8</v>
       </c>
-      <c r="U28" s="1">
-        <v>1500</v>
-      </c>
-      <c r="V28" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="29" ht="27" spans="1:22">
+      <c r="W28" s="1">
+        <v>4500</v>
+      </c>
+      <c r="X28" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="29" ht="40.5" spans="1:24">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="D29" s="1">
         <v>3</v>
       </c>
       <c r="E29" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I29" s="1">
+        <v>1</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L29" s="1">
+        <v>2</v>
+      </c>
+      <c r="M29" s="1">
+        <v>1</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="T29" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H29" s="1">
-        <v>1</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K29" s="1">
-        <v>2</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N29" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="R29" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="S29" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="T29" s="1">
+      <c r="U29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V29" s="1">
         <v>8</v>
       </c>
-      <c r="U29" s="1">
-        <v>4500</v>
-      </c>
-      <c r="V29" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22">
+      <c r="W29" s="1">
+        <v>1800</v>
+      </c>
+      <c r="X29" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="30" ht="27" spans="1:24">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D30" s="1">
+      <c r="G30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M30" s="1">
         <v>3</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H30" s="1">
-        <v>1</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K30" s="1">
-        <v>2</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="R30" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="S30" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T30" s="1">
-        <v>8</v>
-      </c>
-      <c r="U30" s="1">
-        <v>1800</v>
-      </c>
-      <c r="V30" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="N30" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="T30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V30" s="1">
+        <v>1</v>
+      </c>
+      <c r="W30" s="1">
+        <v>50</v>
+      </c>
+      <c r="X30" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="31" ht="27" spans="1:24">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>165</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I31" s="1">
+        <v>4</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M31" s="1">
+        <v>1</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="T31" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="U31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V31" s="1">
+        <v>3</v>
+      </c>
+      <c r="W31" s="1">
+        <v>1000</v>
+      </c>
+      <c r="X31" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="32" ht="27" spans="1:24">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>167</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I32" s="1">
+        <v>4</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M32" s="1">
+        <v>1</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="T32" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V32" s="1">
+        <v>4</v>
+      </c>
+      <c r="W32" s="1">
+        <v>800</v>
+      </c>
+      <c r="X32" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="33" ht="27" spans="1:24">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>170</v>
+      </c>
+      <c r="D33" s="1">
+        <v>2</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I33" s="1">
+        <v>6</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L33" s="1">
+        <v>2</v>
+      </c>
+      <c r="M33" s="1">
+        <v>1</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="T33" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="U33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V33" s="1">
+        <v>4</v>
+      </c>
+      <c r="W33" s="1">
+        <v>2700</v>
+      </c>
+      <c r="X33" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="34" ht="27" spans="1:24">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C34" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D34" s="1">
+        <v>2</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I34" s="1">
+        <v>6</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L34" s="1">
+        <v>1</v>
+      </c>
+      <c r="M34" s="1">
+        <v>1</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="T34" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="U34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V34" s="1">
+        <v>4</v>
+      </c>
+      <c r="W34" s="1">
+        <v>1500</v>
+      </c>
+      <c r="X34" s="2" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" ht="27" spans="1:24">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="36" ht="27" spans="1:22">
+      <c r="D35" s="1">
+        <v>2</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I35" s="1">
+        <v>8</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L35" s="1">
+        <v>2</v>
+      </c>
+      <c r="M35" s="1">
+        <v>1</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="T35" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="U35" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="V35" s="1">
+        <v>8</v>
+      </c>
+      <c r="W35" s="1">
+        <v>3500</v>
+      </c>
+      <c r="X35" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="D36" s="1">
         <v>2</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>90</v>
+        <v>185</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>70</v>
+        <v>186</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H36" s="1">
-        <v>8</v>
-      </c>
-      <c r="I36" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I36" s="1">
+        <v>6</v>
+      </c>
+      <c r="J36" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="J36" s="1" t="s">
+      <c r="K36" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L36" s="1">
+        <v>1</v>
+      </c>
+      <c r="M36" s="1">
+        <v>1</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="T36" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="U36" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V36" s="1">
+        <v>4</v>
+      </c>
+      <c r="W36" s="1">
+        <v>2700</v>
+      </c>
+      <c r="X36" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="37" ht="27" spans="1:24">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D37" s="1">
+        <v>2</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I37" s="1">
+        <v>0</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M37" s="1">
+        <v>2</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="T37" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U37" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V37" s="1">
+        <v>1</v>
+      </c>
+      <c r="W37" s="1">
+        <v>700</v>
+      </c>
+      <c r="X37" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="38" ht="40.5" spans="1:24">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D38" s="1">
+        <v>2</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I38" s="1">
+        <v>1</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M38" s="1">
+        <v>1</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="T38" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U38" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V38" s="1">
+        <v>2</v>
+      </c>
+      <c r="W38" s="1">
+        <v>1100</v>
+      </c>
+      <c r="X38" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="39" ht="27" spans="1:24">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D39" s="1">
+        <v>2</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I39" s="1">
+        <v>1</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K39" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="K36" s="1">
-        <v>2</v>
-      </c>
-      <c r="L36" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="M36" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="N36" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="R36" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="S36" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="T36" s="1">
-        <v>8</v>
-      </c>
-      <c r="U36" s="1">
-        <v>3500</v>
-      </c>
-      <c r="V36" s="2" t="s">
-        <v>184</v>
+      <c r="L39" s="1">
+        <v>1</v>
+      </c>
+      <c r="M39" s="1">
+        <v>1</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="T39" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U39" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V39" s="1">
+        <v>5</v>
+      </c>
+      <c r="W39" s="1">
+        <v>1500</v>
+      </c>
+      <c r="X39" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="60" ht="27" spans="1:24">
+      <c r="A60" s="1">
+        <v>20</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D60" s="1">
+        <v>3</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I60" s="1">
+        <v>1</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L60" s="1">
+        <v>1</v>
+      </c>
+      <c r="N60" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="O60" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="P60" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="T60" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="U60" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V60" s="1">
+        <v>4</v>
+      </c>
+      <c r="W60" s="1">
+        <v>15000</v>
+      </c>
+      <c r="X60" s="2" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -3627,583 +4398,583 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="2:6">
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="2:6">
       <c r="B4" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="F5" s="2" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="2:6">
       <c r="B11" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
     </row>
     <row r="13" spans="2:6">
       <c r="B13" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>66</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="2:6">
       <c r="B14" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
     </row>
     <row r="15" spans="2:6">
       <c r="B15" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
     </row>
     <row r="16" spans="2:6">
       <c r="B16" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>207</v>
+        <v>225</v>
       </c>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>209</v>
+        <v>227</v>
       </c>
     </row>
     <row r="18" spans="2:6">
       <c r="B18" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
     </row>
     <row r="19" ht="27" spans="2:6">
       <c r="B19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>212</v>
+        <v>230</v>
       </c>
     </row>
     <row r="20" ht="27" spans="2:6">
       <c r="B20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
     </row>
     <row r="21" ht="27" spans="2:6">
       <c r="B21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>216</v>
+        <v>234</v>
       </c>
     </row>
     <row r="22" spans="2:6">
       <c r="B22" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>217</v>
+        <v>235</v>
       </c>
     </row>
     <row r="23" spans="2:6">
       <c r="B23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>218</v>
+        <v>236</v>
       </c>
     </row>
     <row r="24" spans="2:6">
       <c r="B24" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>219</v>
+        <v>237</v>
       </c>
     </row>
     <row r="25" spans="2:6">
       <c r="B25" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
     </row>
     <row r="26" spans="2:6">
       <c r="B26" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
     </row>
     <row r="27" spans="2:6">
       <c r="B27" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>125</v>
+        <v>198</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
     </row>
     <row r="28" ht="124" customHeight="1" spans="2:6">
       <c r="B28" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>126</v>
+        <v>199</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>223</v>
+        <v>241</v>
       </c>
     </row>
     <row r="29" ht="135" spans="2:6">
       <c r="B29" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>127</v>
+        <v>200</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
     </row>
     <row r="30" ht="27" spans="2:6">
       <c r="B30" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>225</v>
+        <v>243</v>
       </c>
     </row>
     <row r="31" ht="27" spans="2:6">
       <c r="B31" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
     </row>
     <row r="32" spans="2:6">
       <c r="B32" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
     </row>
     <row r="33" spans="2:6">
       <c r="B33" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
     </row>
     <row r="34" spans="2:6">
       <c r="B34" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>

--- a/资料库/武器库.xlsx
+++ b/资料库/武器库.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860"/>
+    <workbookView windowWidth="21570" windowHeight="9540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="武器V3" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="263">
   <si>
     <t>编号</t>
   </si>
@@ -35,7 +35,7 @@
     <t>伤害</t>
   </si>
   <si>
-    <t>附加伤害</t>
+    <t>最大附加伤害</t>
   </si>
   <si>
     <t>伤害属性</t>
@@ -296,7 +296,7 @@
     <t>4D20</t>
   </si>
   <si>
-    <t>隧发枪I</t>
+    <t>隧发机制I</t>
   </si>
   <si>
     <t>敏3</t>
@@ -515,12 +515,18 @@
     <t>复合短弩</t>
   </si>
   <si>
+    <t>预瞄攻击</t>
+  </si>
+  <si>
     <t>带有滑轮装置和复合弓体的短弩，能发挥出超过普通短弩的威力。如果弄坏了会很心疼</t>
   </si>
   <si>
     <t>散射短弓</t>
   </si>
   <si>
+    <t>多重攻击I</t>
+  </si>
+  <si>
     <t>复合射击I</t>
   </si>
   <si>
@@ -530,6 +536,9 @@
     <t>左轮手枪</t>
   </si>
   <si>
+    <t>爆发射击I</t>
+  </si>
+  <si>
     <t>左轮枪I</t>
   </si>
   <si>
@@ -578,12 +587,18 @@
     <t>9D20</t>
   </si>
   <si>
+    <t>零距离射击</t>
+  </si>
+  <si>
     <t>静谧之杖</t>
   </si>
   <si>
     <t>5D6</t>
   </si>
   <si>
+    <t>立场投射</t>
+  </si>
+  <si>
     <t>静谧I</t>
   </si>
   <si>
@@ -593,6 +608,9 @@
     <t>怒炎权杖</t>
   </si>
   <si>
+    <t>蓄能火焰</t>
+  </si>
+  <si>
     <t>火焰增强I</t>
   </si>
   <si>
@@ -600,6 +618,9 @@
   </si>
   <si>
     <t>装填式法杖</t>
+  </si>
+  <si>
+    <t>魔力发射</t>
   </si>
   <si>
     <t>魔法装填I</t>
@@ -758,13 +779,15 @@
     <t>这个武器是发射与装填一体的弓箭类武器，使用会导致主动性-I</t>
   </si>
   <si>
-    <t>燧发枪I</t>
+    <t>燧发机制I</t>
   </si>
   <si>
     <t>火枪武器</t>
   </si>
   <si>
-    <t>这个武器除了第1次发射之外，每次发射后都需要消耗次要行动手动进行装填；在濡湿的情况下，不能射击</t>
+    <t>这个武器除了第1次发射之外，每次发射后都需要消耗次要行动手动进行装填
+伤害将在【终幕】进行结算
+在持有角色获得【濡湿】或武器所在部位受到液体沾染时，不能射击</t>
   </si>
   <si>
     <t>命中-I，造成眩晕I</t>
@@ -782,7 +805,43 @@
     <t>这个武器可以单手持握，但不能在这个时候攻击</t>
   </si>
   <si>
+    <t>这个武器的造伤骰子+1，但是耐久-1
+这个武器只能通过【手工】或【特殊武器】保养和维修</t>
+  </si>
+  <si>
+    <t>小型武器</t>
+  </si>
+  <si>
+    <t>这个武器适合进行投掷攻击。在被投掷时射程+1，造伤骰子+1</t>
+  </si>
+  <si>
+    <t>这个武器带有一些驱魔的力量
+在对污秽、灵体进行攻击时，额外造成I的神圣伤害</t>
+  </si>
+  <si>
+    <t>使用魔法或者的机关之类的启动这个武器上的装置
+使用之后武器失去所有耐久，变成损坏状态（清除其上的异常效果）
+使用时引爆其上的物理属性和元素属性</t>
+  </si>
+  <si>
     <t>发动3次命中分别计算的近战攻击，消耗45体力</t>
+  </si>
+  <si>
+    <t>这个武器的命中骰子-1，但是造伤骰子+1
+武器在损坏状态时拥有最大2点耐久</t>
+  </si>
+  <si>
+    <t>额外注入毒素的攻击。在武器命中时可以尝试使用
+这个特殊攻击命中率-I
+命中目标时，额外增加血液毒素I</t>
+  </si>
+  <si>
+    <t>这个武器是活着的。
+每日需要消耗1口粮（可用相等其他食物代替）
+每日修复1的耐久
+如果承受等同于10的伤害，则耐久会损失1
+会完全贯穿格挡的伤害同样会伤害耐久1
+一旦武器损坏，武器立即消灭</t>
   </si>
   <si>
     <t>每日失去1的精神力
@@ -819,10 +878,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -833,65 +892,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -915,6 +915,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -923,11 +930,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -940,14 +947,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -955,7 +962,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -971,7 +978,59 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -998,13 +1057,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1022,163 +1231,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1189,6 +1248,71 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1224,71 +1348,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1297,10 +1356,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1309,133 +1368,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1776,8 +1835,8 @@
   <sheetPr/>
   <dimension ref="A1:AN60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="M36" sqref="M36"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="N39" sqref="N39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3767,7 +3826,7 @@
         <v>1</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>82</v>
+        <v>166</v>
       </c>
       <c r="O31" s="1" t="s">
         <v>83</v>
@@ -3788,7 +3847,7 @@
         <v>1000</v>
       </c>
       <c r="X31" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="32" ht="27" spans="1:24">
@@ -3799,7 +3858,7 @@
         <v>120</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D32" s="1">
         <v>1</v>
@@ -3832,13 +3891,13 @@
         <v>1</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>82</v>
+        <v>169</v>
       </c>
       <c r="O32" s="1" t="s">
         <v>88</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="T32" s="1" t="s">
         <v>35</v>
@@ -3853,7 +3912,7 @@
         <v>800</v>
       </c>
       <c r="X32" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="33" ht="27" spans="1:24">
@@ -3864,7 +3923,7 @@
         <v>120</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D33" s="1">
         <v>2</v>
@@ -3897,13 +3956,13 @@
         <v>1</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>104</v>
+        <v>173</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="T33" s="1" t="s">
         <v>105</v>
@@ -3918,7 +3977,7 @@
         <v>2700</v>
       </c>
       <c r="X33" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="34" ht="27" spans="1:24">
@@ -3929,7 +3988,7 @@
         <v>120</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D34" s="1">
         <v>2</v>
@@ -3968,7 +4027,7 @@
         <v>83</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="T34" s="1" t="s">
         <v>98</v>
@@ -3983,7 +4042,7 @@
         <v>1500</v>
       </c>
       <c r="X34" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="35" ht="27" spans="1:24">
@@ -3994,7 +4053,7 @@
         <v>120</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D35" s="1">
         <v>2</v>
@@ -4027,19 +4086,19 @@
         <v>1</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="T35" s="1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="U35" s="1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="V35" s="1">
         <v>8</v>
@@ -4048,7 +4107,7 @@
         <v>3500</v>
       </c>
       <c r="X35" s="2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="36" spans="1:24">
@@ -4059,16 +4118,16 @@
         <v>120</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D36" s="1">
         <v>2</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>28</v>
@@ -4092,7 +4151,7 @@
         <v>1</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>104</v>
+        <v>190</v>
       </c>
       <c r="O36" s="1" t="s">
         <v>93</v>
@@ -4121,7 +4180,7 @@
         <v>120</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="D37" s="1">
         <v>2</v>
@@ -4130,7 +4189,7 @@
         <v>108</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>51</v>
@@ -4154,13 +4213,13 @@
         <v>2</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>110</v>
+        <v>193</v>
       </c>
       <c r="O37" s="1" t="s">
         <v>111</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="T37" s="1" t="s">
         <v>32</v>
@@ -4175,7 +4234,7 @@
         <v>700</v>
       </c>
       <c r="X37" s="2" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="38" ht="40.5" spans="1:24">
@@ -4186,7 +4245,7 @@
         <v>120</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="D38" s="1">
         <v>2</v>
@@ -4219,13 +4278,13 @@
         <v>1</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>33</v>
+        <v>197</v>
       </c>
       <c r="O38" s="1" t="s">
         <v>149</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="T38" s="1" t="s">
         <v>42</v>
@@ -4240,7 +4299,7 @@
         <v>1100</v>
       </c>
       <c r="X38" s="2" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
     </row>
     <row r="39" ht="27" spans="1:24">
@@ -4251,7 +4310,7 @@
         <v>120</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="D39" s="1">
         <v>2</v>
@@ -4284,13 +4343,13 @@
         <v>1</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>117</v>
+        <v>201</v>
       </c>
       <c r="O39" s="1" t="s">
         <v>124</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="T39" s="1" t="s">
         <v>35</v>
@@ -4305,7 +4364,7 @@
         <v>1500</v>
       </c>
       <c r="X39" s="2" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
     </row>
     <row r="60" ht="27" spans="1:24">
@@ -4316,7 +4375,7 @@
         <v>120</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="D60" s="1">
         <v>3</v>
@@ -4346,16 +4405,16 @@
         <v>1</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="O60" s="1" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="P60" s="1" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="T60" s="1" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="U60" s="1" t="s">
         <v>32</v>
@@ -4367,7 +4426,7 @@
         <v>15000</v>
       </c>
       <c r="X60" s="2" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -4379,10 +4438,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -4398,22 +4457,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="2:6">
@@ -4430,7 +4489,7 @@
         <v>29</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="2:6">
@@ -4441,13 +4500,13 @@
         <v>34</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>32</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="2:6">
@@ -4464,7 +4523,7 @@
         <v>39</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="2:6">
@@ -4475,13 +4534,13 @@
         <v>41</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="2:6">
@@ -4498,7 +4557,7 @@
         <v>32</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" spans="2:6">
@@ -4509,13 +4568,13 @@
         <v>47</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>32</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="2:6">
@@ -4526,13 +4585,13 @@
         <v>53</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="2:6">
@@ -4540,16 +4599,16 @@
         <v>24</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>210</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
     </row>
     <row r="10" spans="2:6">
@@ -4557,16 +4616,16 @@
         <v>24</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
     </row>
     <row r="11" spans="2:6">
@@ -4583,7 +4642,7 @@
         <v>39</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12" spans="2:6">
@@ -4600,7 +4659,7 @@
         <v>45</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13" spans="2:6">
@@ -4617,7 +4676,7 @@
         <v>29</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="2:6">
@@ -4628,13 +4687,13 @@
         <v>70</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="2:6">
@@ -4651,7 +4710,7 @@
         <v>45</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
     </row>
     <row r="16" spans="2:6">
@@ -4665,10 +4724,10 @@
         <v>13</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
     </row>
     <row r="17" spans="2:6">
@@ -4679,13 +4738,13 @@
         <v>78</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>32</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
     </row>
     <row r="18" spans="2:6">
@@ -4699,10 +4758,10 @@
         <v>13</v>
       </c>
       <c r="E18" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>228</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="19" ht="27" spans="2:6">
@@ -4713,13 +4772,13 @@
         <v>83</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
     </row>
     <row r="20" ht="27" spans="2:6">
@@ -4730,30 +4789,30 @@
         <v>88</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="21" ht="27" spans="2:6">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="21" ht="67.5" spans="2:6">
       <c r="B21" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
     </row>
     <row r="22" spans="2:6">
@@ -4770,7 +4829,7 @@
         <v>32</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
     </row>
     <row r="23" spans="2:6">
@@ -4781,13 +4840,13 @@
         <v>111</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>32</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
     </row>
     <row r="24" spans="2:6">
@@ -4798,13 +4857,13 @@
         <v>114</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
     </row>
     <row r="25" spans="2:6">
@@ -4821,7 +4880,7 @@
         <v>32</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
     </row>
     <row r="26" spans="2:6">
@@ -4832,72 +4891,72 @@
         <v>118</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>32</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="27" ht="27" spans="2:6">
       <c r="B27" s="1" t="s">
         <v>120</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>198</v>
+        <v>124</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>13</v>
+        <v>236</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="28" ht="124" customHeight="1" spans="2:6">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="28" ht="27" spans="2:6">
       <c r="B28" s="1" t="s">
         <v>120</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>199</v>
+        <v>123</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>32</v>
+        <v>248</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="29" ht="135" spans="2:6">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="29" ht="27" spans="2:6">
       <c r="B29" s="1" t="s">
         <v>120</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>32</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="30" ht="27" spans="2:6">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="30" ht="54" spans="2:6">
       <c r="B30" s="1" t="s">
         <v>120</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>13</v>
@@ -4906,80 +4965,199 @@
         <v>32</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="31" ht="27" spans="2:6">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6">
       <c r="B31" s="1" t="s">
         <v>120</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>154</v>
+        <v>205</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>226</v>
+        <v>13</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="32" ht="27" spans="2:6">
       <c r="B32" s="1" t="s">
         <v>120</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>178</v>
+        <v>136</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>13</v>
+        <v>233</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>32</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="33" ht="40.5" spans="2:6">
       <c r="B33" s="1" t="s">
         <v>120</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>179</v>
+        <v>139</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>210</v>
+        <v>13</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>32</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="34" ht="81" spans="2:6">
       <c r="B34" s="1" t="s">
         <v>120</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>210</v>
+        <v>236</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>32</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>247</v>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="35" ht="124" customHeight="1" spans="2:6">
+      <c r="B35" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="36" ht="135" spans="2:6">
+      <c r="B36" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="37" ht="27" spans="2:6">
+      <c r="B37" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="38" ht="27" spans="2:6">
+      <c r="B38" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="B39" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6">
+      <c r="B40" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6">
+      <c r="B41" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>262</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D26 D27 D28 D34 D2:D11 D12:D20 D21:D22 D23:D25 D29:D31 D32:D33">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D26 D27 D28 D31 D34 D35 D41 D2:D11 D12:D20 D21:D22 D23:D25 D29:D30 D32:D33 D36:D38 D39:D40">
       <formula1>"特殊攻击,攻击特性,防御特性,通用特性"</formula1>
     </dataValidation>
   </dataValidations>

--- a/资料库/武器库.xlsx
+++ b/资料库/武器库.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21570" windowHeight="9540" activeTab="1"/>
+    <workbookView windowWidth="20490" windowHeight="7860" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="武器V3" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="267">
   <si>
     <t>编号</t>
   </si>
@@ -446,7 +446,7 @@
     <t>星仪斗剑</t>
   </si>
   <si>
-    <t>星光迸射</t>
+    <t>光芒迸射</t>
   </si>
   <si>
     <t>神圣I</t>
@@ -824,9 +824,6 @@
 使用时引爆其上的物理属性和元素属性</t>
   </si>
   <si>
-    <t>发动3次命中分别计算的近战攻击，消耗45体力</t>
-  </si>
-  <si>
     <t>这个武器的命中骰子-1，但是造伤骰子+1
 武器在损坏状态时拥有最大2点耐久</t>
   </si>
@@ -844,6 +841,23 @@
 一旦武器损坏，武器立即消灭</t>
   </si>
   <si>
+    <t>这个武器可以将属性以【光束】发射出去
+每次使用会降低1的耐久</t>
+  </si>
+  <si>
+    <t>这个武器可以转换1个骰子的神圣伤害</t>
+  </si>
+  <si>
+    <t>释放出惊天巨炎的攻击。对至多3个敌方目标造成等同于武器伤害的火焰伤害
+每一次使用时，武器损失1耐久</t>
+  </si>
+  <si>
+    <t>可以将至多1伤害骰子转化为火焰伤害</t>
+  </si>
+  <si>
+    <t>发动3次命中分别计算的近战攻击，消耗45体力</t>
+  </si>
+  <si>
     <t>每日失去1的精神力
 -勇气愿望：武器造成撕裂伤害，造成流血时为使用者生成力场护盾I。愿望为勇气时生效
 -欲望愿望：武器造成贯穿伤害，造成穿甲效果时为使用者恢复等同于伤害的生命力。愿望为欲望时生效
@@ -878,10 +892,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -889,6 +903,14 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -900,49 +922,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -962,7 +945,83 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -976,39 +1035,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1017,20 +1045,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1057,7 +1071,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1069,67 +1215,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1141,85 +1239,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1235,12 +1255,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -1251,25 +1265,21 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1285,6 +1295,36 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1307,11 +1347,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1324,30 +1362,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1356,10 +1370,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1368,133 +1382,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1835,8 +1849,8 @@
   <sheetPr/>
   <dimension ref="A1:AN60"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="N39" sqref="N39"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4438,10 +4452,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A38" sqref="$A38:$XFD38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -4968,32 +4982,32 @@
         <v>251</v>
       </c>
     </row>
-    <row r="31" spans="2:6">
+    <row r="31" ht="27" spans="2:6">
       <c r="B31" s="1" t="s">
         <v>120</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>205</v>
+        <v>136</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>13</v>
+        <v>233</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="32" ht="27" spans="2:6">
+    <row r="32" ht="40.5" spans="2:6">
       <c r="B32" s="1" t="s">
         <v>120</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>233</v>
+        <v>13</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>32</v>
@@ -5002,15 +5016,15 @@
         <v>253</v>
       </c>
     </row>
-    <row r="33" ht="40.5" spans="2:6">
+    <row r="33" ht="81" spans="2:6">
       <c r="B33" s="1" t="s">
         <v>120</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>13</v>
+        <v>236</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>32</v>
@@ -5019,15 +5033,15 @@
         <v>254</v>
       </c>
     </row>
-    <row r="34" ht="81" spans="2:6">
+    <row r="34" ht="27" spans="2:6">
       <c r="B34" s="1" t="s">
         <v>120</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>236</v>
+        <v>13</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>32</v>
@@ -5036,12 +5050,12 @@
         <v>255</v>
       </c>
     </row>
-    <row r="35" ht="124" customHeight="1" spans="2:6">
+    <row r="35" spans="2:6">
       <c r="B35" s="1" t="s">
         <v>120</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>206</v>
+        <v>144</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>236</v>
@@ -5053,15 +5067,15 @@
         <v>256</v>
       </c>
     </row>
-    <row r="36" ht="135" spans="2:6">
+    <row r="36" ht="40.5" spans="2:6">
       <c r="B36" s="1" t="s">
         <v>120</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>207</v>
+        <v>148</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>236</v>
+        <v>13</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>32</v>
@@ -5070,38 +5084,21 @@
         <v>257</v>
       </c>
     </row>
-    <row r="37" ht="27" spans="2:6">
+    <row r="37" spans="2:6">
       <c r="B37" s="1" t="s">
         <v>120</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>13</v>
+        <v>217</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>32</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>258</v>
-      </c>
-    </row>
-    <row r="38" ht="27" spans="2:6">
-      <c r="B38" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="39" spans="2:6">
@@ -5109,55 +5106,140 @@
         <v>120</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>181</v>
+        <v>205</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="40" ht="124" customHeight="1" spans="2:6">
       <c r="B40" s="1" t="s">
         <v>120</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>182</v>
+        <v>206</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>32</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="41" ht="135" spans="2:6">
       <c r="B41" s="1" t="s">
         <v>120</v>
       </c>
       <c r="C41" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="42" ht="27" spans="2:6">
+      <c r="B42" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="43" ht="27" spans="2:6">
+      <c r="B43" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6">
+      <c r="B44" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6">
+      <c r="B45" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6">
+      <c r="B46" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D46" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>262</v>
+      <c r="E46" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>266</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D26 D27 D28 D31 D34 D35 D41 D2:D11 D12:D20 D21:D22 D23:D25 D29:D30 D32:D33 D36:D38 D39:D40">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D26 D27 D28 D33 D34 D35 D36 D37 D38 D39 D40 D46 D2:D11 D12:D20 D21:D22 D23:D25 D29:D30 D31:D32 D41:D43 D44:D45">
       <formula1>"特殊攻击,攻击特性,防御特性,通用特性"</formula1>
     </dataValidation>
   </dataValidations>
